--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="92">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -225,6 +225,9 @@
     <t xml:space="preserve">Receive/request/reward usage in testcase</t>
   </si>
   <si>
+    <t xml:space="preserve">Account</t>
+  </si>
+  <si>
     <t xml:space="preserve">Law and Politics</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t xml:space="preserve">Receive by Student → Backpack → ReceiveBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student19example@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Circulation and Breathing</t>
@@ -301,8 +307,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -548,296 +555,284 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,23 +845,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1109,840 +1087,840 @@
   </sheetPr>
   <dimension ref="A3:R35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <f aca="false">COUNT(A5:A34)</f>
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="O3" s="3" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="17"/>
-      <c r="O5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="18"/>
+      <c r="O5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="O6" s="8"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="9"/>
       <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="I7" s="9"/>
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="O7" s="8"/>
+      <c r="M7" s="20"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="18"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="I8" s="8"/>
-      <c r="M8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="I8" s="9"/>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="9"/>
       <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="20"/>
-      <c r="O9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="21"/>
+      <c r="O9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="O10" s="8"/>
+      <c r="M10" s="20"/>
+      <c r="O10" s="9"/>
       <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="19"/>
+      <c r="I11" s="9"/>
       <c r="K11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="O11" s="8"/>
+      <c r="M11" s="20"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="18"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="I12" s="8"/>
-      <c r="M12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="I12" s="9"/>
+      <c r="M12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="9"/>
       <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="20"/>
-      <c r="O13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="21"/>
+      <c r="O13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="G14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="G14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="O14" s="8"/>
+      <c r="M14" s="20"/>
+      <c r="O14" s="9"/>
       <c r="Q14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="18"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="G15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="G15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="K15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="O15" s="8"/>
+      <c r="M15" s="20"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="18"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="G16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="M16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="G16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="M16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="9"/>
       <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="20"/>
-      <c r="O17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="21"/>
+      <c r="O17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="8"/>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="O18" s="8"/>
+      <c r="M18" s="20"/>
+      <c r="O18" s="9"/>
       <c r="Q18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="18"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="I19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="I19" s="9"/>
       <c r="K19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="O19" s="8"/>
+      <c r="M19" s="20"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="20"/>
-      <c r="O20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="21"/>
+      <c r="O20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="19"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="O21" s="8"/>
+      <c r="M21" s="20"/>
+      <c r="O21" s="9"/>
       <c r="Q21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="18"/>
+      <c r="R21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="19"/>
+      <c r="I22" s="9"/>
       <c r="K22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="O22" s="8"/>
+      <c r="M22" s="20"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="18"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
+      <c r="A23" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="G24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="O24" s="8"/>
+      <c r="M24" s="20"/>
+      <c r="O24" s="9"/>
       <c r="Q24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="18"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="G25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="9"/>
       <c r="K25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="O25" s="8"/>
+      <c r="M25" s="20"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R25" s="18"/>
-    </row>
-    <row r="26" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="20"/>
-      <c r="O26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="21"/>
+      <c r="O26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="D27" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="19"/>
-      <c r="O27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="D27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="20"/>
+      <c r="O27" s="9"/>
       <c r="Q27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="18"/>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="I28" s="8"/>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="I28" s="9"/>
       <c r="K28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="O28" s="8"/>
+      <c r="M28" s="20"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="20"/>
-      <c r="O29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="21"/>
+      <c r="O29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="19"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="O30" s="8"/>
+      <c r="M30" s="20"/>
+      <c r="O30" s="9"/>
       <c r="Q30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R30" s="18"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="19"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="23"/>
       <c r="K31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="O31" s="8"/>
+      <c r="M31" s="20"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="18"/>
-    </row>
-    <row r="32" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
+      <c r="R31" s="19"/>
+    </row>
+    <row r="32" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="20"/>
-      <c r="O32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="21"/>
+      <c r="O32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="G33" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="J33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="O33" s="8"/>
+      <c r="M33" s="20"/>
+      <c r="O33" s="9"/>
       <c r="Q33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="G34" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="G34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="9"/>
       <c r="K34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="O34" s="8"/>
+      <c r="M34" s="20"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="18"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="24"/>
@@ -1997,156 +1975,156 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.72"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <f aca="false">COUNTA(A5:A21)</f>
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="30"/>
-      <c r="I5" s="18"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="K6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="20"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="19"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="K8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="K8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
@@ -2176,73 +2154,73 @@
       <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="37"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="38"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="37"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="38"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="38"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
@@ -2272,73 +2250,73 @@
       <c r="A14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="37"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="38"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="37"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="38"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="19"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="38"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
@@ -2408,226 +2386,226 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="23.43"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="30"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="18"/>
-      <c r="J5" s="42" t="s">
+      <c r="H5" s="19"/>
+      <c r="J5" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="44" t="s">
+      <c r="H6" s="19"/>
+      <c r="J6" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="18"/>
-      <c r="J7" s="45" t="s">
+      <c r="H7" s="19"/>
+      <c r="J7" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2659,420 +2637,420 @@
   </sheetPr>
   <dimension ref="A3:R19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="22.14"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="49" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="L3" s="4" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="50"/>
-      <c r="F5" s="19"/>
-      <c r="H5" s="50"/>
-      <c r="J5" s="19"/>
-      <c r="L5" s="2"/>
+      <c r="B5" s="47"/>
+      <c r="F5" s="20"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="20"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="30"/>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="H6" s="54" t="s">
+      <c r="B6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="18"/>
-      <c r="L6" s="8"/>
+      <c r="J6" s="19"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="44" t="s">
+      <c r="P6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="45" t="s">
+      <c r="P7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="J8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="9"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="47" t="s">
+      <c r="P8" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="H9" s="59" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="H9" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="18"/>
-      <c r="L9" s="8"/>
+      <c r="J9" s="19"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="18"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="8"/>
+      <c r="J11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="9"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="H12" s="63" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="H12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="18"/>
-      <c r="L12" s="8"/>
+      <c r="J12" s="19"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="18"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="L13" s="8"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="18"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="8"/>
+      <c r="J14" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="9"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="18"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="H15" s="68" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="H15" s="65" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="18"/>
-      <c r="L15" s="8"/>
+      <c r="J15" s="19"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="18"/>
+      <c r="P15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="54" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="18"/>
-      <c r="L16" s="8"/>
+      <c r="J16" s="19"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="47" t="s">
+      <c r="P16" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="47" t="s">
+      <c r="P17" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="8"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="8"/>
+      <c r="J18" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="9"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="47" t="s">
+      <c r="P18" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="27"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
@@ -3112,250 +3090,250 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="21.71"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="50"/>
-      <c r="D5" s="19"/>
-      <c r="F5" s="50"/>
-      <c r="H5" s="19"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="47"/>
+      <c r="D5" s="20"/>
+      <c r="F5" s="47"/>
+      <c r="H5" s="20"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="30"/>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="19"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="44" t="s">
+      <c r="N6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8"/>
-      <c r="C7" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="60" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="18"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="19"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="18"/>
-      <c r="P7" s="45" t="s">
+      <c r="N7" s="19"/>
+      <c r="P7" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="18"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="H9" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="18"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="60" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="18"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="18"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="18"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="8"/>
+      <c r="H12" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="18"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="27"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="27"/>
       <c r="J13" s="24"/>
       <c r="K13" s="25"/>
@@ -3386,573 +3364,617 @@
   </sheetPr>
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="48.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="27.64"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="43" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="39" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="39" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="0" t="s">
+    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="0" t="s">
+    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="0" t="s">
+    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="0" t="s">
+    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="student19example@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId2" display="student19example@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId3" display="student19example@gmail.com"/>
+    <hyperlink ref="G6" r:id="rId4" display="student19example@gmail.com"/>
+    <hyperlink ref="G7" r:id="rId5" display="student19example@gmail.com"/>
+    <hyperlink ref="G8" r:id="rId6" display="student19example@gmail.com"/>
+    <hyperlink ref="G9" r:id="rId7" display="student19example@gmail.com"/>
+    <hyperlink ref="G10" r:id="rId8" display="student19example@gmail.com"/>
+    <hyperlink ref="G17" r:id="rId9" display="student19example@gmail.com"/>
+    <hyperlink ref="G20" r:id="rId10" display="student19example@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="96">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -147,6 +147,9 @@
     <t xml:space="preserve">Actie system admin</t>
   </si>
   <si>
+    <t xml:space="preserve">Student → EditBadge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badge delen</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
     <t xml:space="preserve">Badge intrekken - HBO</t>
   </si>
   <si>
+    <t xml:space="preserve">Student → BadgeRemoval</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badge intrekken - Uni</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve">Verwijderen</t>
   </si>
   <si>
+    <t xml:space="preserve">Teacher → BadgeInteraction → BadgeCreation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Backpackpage → Login</t>
   </si>
   <si>
@@ -292,6 +301,9 @@
   </si>
   <si>
     <t xml:space="preserve">Harvard-example.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read by Teacher → BadgeInteraction → SeeBadge</t>
   </si>
   <si>
     <t xml:space="preserve">Read by Student → BasicsCatalog</t>
@@ -311,13 +323,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -336,17 +347,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -792,6 +795,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -808,11 +815,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,14 +954,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -966,67 +969,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1045,35 +1006,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1085,7 +1022,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
@@ -1105,7 +1042,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <f aca="false">COUNT(A5:A34)</f>
         <v>30</v>
@@ -1134,7 +1073,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>1</v>
       </c>
@@ -1210,7 +1149,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
@@ -1232,7 +1171,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
@@ -1254,7 +1193,7 @@
       </c>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
@@ -1275,7 +1214,7 @@
       </c>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <v>5</v>
       </c>
@@ -1304,7 +1243,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>6</v>
       </c>
@@ -1327,7 +1266,7 @@
       </c>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
@@ -1350,7 +1289,7 @@
       </c>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
@@ -1372,7 +1311,7 @@
       </c>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>9</v>
       </c>
@@ -1401,7 +1340,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>10</v>
       </c>
@@ -1423,7 +1362,7 @@
       </c>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>11</v>
       </c>
@@ -1445,7 +1384,7 @@
       </c>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
@@ -1466,7 +1405,7 @@
       </c>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="n">
         <v>13</v>
       </c>
@@ -1495,7 +1434,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>14</v>
       </c>
@@ -1518,7 +1457,7 @@
       </c>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>15</v>
       </c>
@@ -1541,7 +1480,7 @@
       </c>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="n">
         <v>16</v>
       </c>
@@ -1570,7 +1509,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>17</v>
       </c>
@@ -1594,7 +1533,7 @@
       </c>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>18</v>
       </c>
@@ -1618,7 +1557,7 @@
       </c>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="n">
         <v>19</v>
       </c>
@@ -1648,7 +1587,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>20</v>
       </c>
@@ -1671,7 +1610,7 @@
       </c>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>21</v>
       </c>
@@ -1694,7 +1633,7 @@
       </c>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="n">
         <v>22</v>
       </c>
@@ -1723,7 +1662,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -1746,7 +1685,7 @@
       </c>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -1769,7 +1708,7 @@
       </c>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="n">
         <v>25</v>
       </c>
@@ -1798,7 +1737,7 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -1822,7 +1761,7 @@
       </c>
       <c r="R30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>27</v>
       </c>
@@ -1847,7 +1786,7 @@
       </c>
       <c r="R31" s="19"/>
     </row>
-    <row r="32" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="n">
         <v>28</v>
       </c>
@@ -1876,7 +1815,7 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>29</v>
       </c>
@@ -1899,7 +1838,7 @@
       </c>
       <c r="R33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>30</v>
       </c>
@@ -1922,7 +1861,7 @@
       </c>
       <c r="R34" s="19"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -1961,7 +1900,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
@@ -1981,7 +1920,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +1988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="30"/>
@@ -2058,7 +1999,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2023,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2043,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -2126,7 +2067,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
@@ -2174,7 +2115,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +2139,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>19</v>
       </c>
@@ -2222,7 +2163,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
         <v>19</v>
       </c>
@@ -2246,7 +2187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
         <v>19</v>
       </c>
@@ -2270,7 +2211,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
         <v>19</v>
       </c>
@@ -2294,7 +2235,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
         <v>19</v>
       </c>
@@ -2318,7 +2259,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
@@ -2378,10 +2319,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2396,6 +2337,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="23.43"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="37" t="s">
         <v>28</v>
@@ -2408,7 +2350,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2431,7 +2373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -2441,7 +2383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
@@ -2459,7 +2401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
         <v>35</v>
       </c>
@@ -2477,7 +2419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
         <v>32</v>
       </c>
@@ -2495,9 +2437,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
@@ -2507,9 +2452,9 @@
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
@@ -2519,9 +2464,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="1"/>
@@ -2531,9 +2476,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
@@ -2543,9 +2488,9 @@
       </c>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
@@ -2555,9 +2500,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="B13" s="40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
@@ -2567,12 +2515,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
@@ -2582,9 +2530,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
@@ -2594,12 +2542,12 @@
       <c r="G15" s="1"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
@@ -2609,7 +2557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -2635,15 +2583,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="37.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35"/>
@@ -2658,19 +2606,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="H3" s="46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
@@ -2682,30 +2632,30 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>15</v>
@@ -2726,7 +2676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="47"/>
       <c r="F5" s="20"/>
       <c r="H5" s="47"/>
@@ -2740,7 +2690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
@@ -2767,7 +2717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
@@ -2794,7 +2744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
         <v>27</v>
       </c>
@@ -2818,7 +2768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="54"/>
       <c r="C9" s="55" t="s">
@@ -2840,7 +2790,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55" t="s">
@@ -2862,7 +2812,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="54"/>
       <c r="C11" s="55" t="s">
@@ -2884,16 +2834,18 @@
       <c r="O11" s="1"/>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="59" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="54"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1"/>
@@ -2906,17 +2858,19 @@
       <c r="O12" s="1"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="59" t="s">
+        <v>59</v>
+      </c>
       <c r="B13" s="54"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="60" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="62" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="19"/>
@@ -2928,18 +2882,18 @@
       <c r="O13" s="1"/>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="54"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
       <c r="H14" s="9"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="63" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="9"/>
@@ -2950,9 +2904,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="s">
-        <v>57</v>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="49"/>
@@ -2974,7 +2928,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
@@ -2998,7 +2952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
         <v>27</v>
       </c>
@@ -3022,7 +2976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
         <v>27</v>
       </c>
@@ -3046,7 +3000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="67"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -3082,10 +3036,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3106,12 +3060,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3128,15 +3084,15 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -3145,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
@@ -3166,7 +3122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="47"/>
       <c r="D5" s="20"/>
       <c r="F5" s="47"/>
@@ -3180,7 +3136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
@@ -3205,14 +3161,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="61" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1"/>
@@ -3228,15 +3184,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="62" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="19"/>
@@ -3248,16 +3204,16 @@
       <c r="M8" s="1"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="63" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="9"/>
@@ -3268,14 +3224,14 @@
       <c r="M9" s="1"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="61" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
@@ -3288,15 +3244,15 @@
       <c r="M10" s="1"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="62" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="19"/>
@@ -3308,16 +3264,16 @@
       <c r="M11" s="1"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="9"/>
@@ -3328,7 +3284,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
       <c r="D13" s="27"/>
@@ -3364,8 +3320,8 @@
   </sheetPr>
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3380,193 +3336,193 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="37" t="s">
+      <c r="D4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -3574,13 +3530,13 @@
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3588,13 +3544,13 @@
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3602,13 +3558,13 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3616,10 +3572,10 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -3630,10 +3586,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -3641,13 +3597,16 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -3656,18 +3615,15 @@
         <v>7</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -3678,10 +3634,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -3692,10 +3648,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -3704,18 +3660,15 @@
         <v>7</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -3726,10 +3679,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3740,10 +3693,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3754,10 +3707,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3768,10 +3721,10 @@
     </row>
     <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3782,10 +3735,10 @@
     </row>
     <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3796,10 +3749,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -3810,10 +3763,10 @@
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -3824,10 +3777,10 @@
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -3838,10 +3791,10 @@
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -3852,10 +3805,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -3866,10 +3819,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -3880,10 +3833,10 @@
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -3894,10 +3847,10 @@
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -3908,10 +3861,10 @@
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -3922,10 +3875,10 @@
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -3936,10 +3889,10 @@
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -3950,10 +3903,10 @@
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -3972,8 +3925,6 @@
     <hyperlink ref="G8" r:id="rId6" display="student19example@gmail.com"/>
     <hyperlink ref="G9" r:id="rId7" display="student19example@gmail.com"/>
     <hyperlink ref="G10" r:id="rId8" display="student19example@gmail.com"/>
-    <hyperlink ref="G17" r:id="rId9" display="student19example@gmail.com"/>
-    <hyperlink ref="G20" r:id="rId10" display="student19example@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3983,175 +3934,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A3605F12E6A764BA5E1F34B3DF10AD4" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3323ec1b47b0987ad304cb442d78f841">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81911cca-d972-4dec-b3a2-9564dbd2b986" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2f652025f962b662e7ab9b23cee5ba3" ns2:_="">
-    <xsd:import namespace="81911cca-d972-4dec-b3a2-9564dbd2b986"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="81911cca-d972-4dec-b3a2-9564dbd2b986" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E54E87A7-9B30-4E0D-9CFA-3592918BEA6A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF42566-0CDC-4DE2-9839-F4F14CBFA893}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA01DAD9-0254-47AE-A8BB-4204AFD839EE}"/>
 </file>
--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="100">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t xml:space="preserve">Issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: all tests were performed on university-example, which is a WO institution</t>
   </si>
   <si>
     <t xml:space="preserve">Badgename</t>
@@ -558,7 +570,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -779,24 +791,72 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -804,35 +864,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1025,7 +1061,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2322,7 +2358,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2585,8 +2621,8 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2777,7 +2813,7 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="1"/>
@@ -2800,7 +2836,7 @@
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="19"/>
@@ -2823,7 +2859,7 @@
       <c r="F11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="55" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="9"/>
@@ -2835,17 +2871,17 @@
       <c r="P11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="56" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1"/>
@@ -2859,18 +2895,18 @@
       <c r="P12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="56" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="57" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="19"/>
@@ -2886,14 +2922,14 @@
       <c r="A14" s="1"/>
       <c r="B14" s="54"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
       <c r="H14" s="9"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="57" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="9"/>
@@ -2905,17 +2941,17 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="56" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="50"/>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="59" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="1"/>
@@ -2936,7 +2972,7 @@
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="60" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="51" t="s">
@@ -2960,7 +2996,7 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9"/>
@@ -2984,7 +3020,7 @@
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="60" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9"/>
@@ -3001,10 +3037,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="27"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
@@ -3036,15 +3072,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="28.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.14"/>
@@ -3123,15 +3159,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="47"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="F5" s="47"/>
       <c r="H5" s="20"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="30"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
       <c r="P5" s="40" t="s">
         <v>34</v>
       </c>
@@ -3140,162 +3177,177 @@
       <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="19"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="45" t="s">
+      <c r="F6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="70" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9"/>
-      <c r="C7" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="19"/>
+    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="19"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="19"/>
+      <c r="F7" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
       <c r="P7" s="43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9"/>
-      <c r="C8" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19"/>
+    <row r="8" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="50"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9"/>
-      <c r="C9" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="19"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
+    </row>
+    <row r="9" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="50"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="19"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="63" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="19"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="19"/>
+      <c r="F10" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="63" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="19"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="63" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="19"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="27"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="27"/>
       <c r="J13" s="24"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3336,193 +3388,193 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -3530,13 +3582,13 @@
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3544,13 +3596,13 @@
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3558,13 +3610,13 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3572,10 +3624,10 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -3586,10 +3638,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -3597,16 +3649,16 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>92</v>
+      <c r="F16" s="75" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -3614,16 +3666,16 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69" t="s">
-        <v>93</v>
+      <c r="F17" s="75" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -3634,10 +3686,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -3648,10 +3700,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -3659,16 +3711,16 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="69" t="s">
-        <v>94</v>
+      <c r="F20" s="75" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -3679,10 +3731,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3693,10 +3745,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3707,10 +3759,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3721,10 +3773,10 @@
     </row>
     <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3735,10 +3787,10 @@
     </row>
     <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3749,10 +3801,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -3763,10 +3815,10 @@
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -3777,10 +3829,10 @@
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -3791,10 +3843,10 @@
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -3805,10 +3857,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -3819,10 +3871,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -3833,10 +3885,10 @@
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -3847,10 +3899,10 @@
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -3861,10 +3913,10 @@
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -3875,10 +3927,10 @@
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -3889,10 +3941,10 @@
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -3903,10 +3955,10 @@
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="101">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve">Teacher → BadgeInteraction → BadgeCreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher → BadgeInteraction → BadgeEdit</t>
   </si>
   <si>
     <t xml:space="preserve">Backpackpage → Login</t>
@@ -335,12 +338,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -356,12 +360,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -570,7 +568,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -660,10 +658,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1058,7 +1052,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A3:R35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
@@ -1078,9 +1072,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <f aca="false">COUNT(A5:A34)</f>
         <v>30</v>
@@ -1109,7 +1101,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>1</v>
       </c>
@@ -1185,7 +1177,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
@@ -1207,7 +1199,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
@@ -1229,7 +1221,7 @@
       </c>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
@@ -1250,7 +1242,7 @@
       </c>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <v>5</v>
       </c>
@@ -1279,7 +1271,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>6</v>
       </c>
@@ -1302,7 +1294,7 @@
       </c>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
@@ -1325,7 +1317,7 @@
       </c>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
@@ -1347,7 +1339,7 @@
       </c>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>9</v>
       </c>
@@ -1376,7 +1368,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>10</v>
       </c>
@@ -1398,7 +1390,7 @@
       </c>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>11</v>
       </c>
@@ -1420,7 +1412,7 @@
       </c>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
@@ -1441,7 +1433,7 @@
       </c>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="n">
         <v>13</v>
       </c>
@@ -1470,7 +1462,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>14</v>
       </c>
@@ -1493,7 +1485,7 @@
       </c>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>15</v>
       </c>
@@ -1516,7 +1508,7 @@
       </c>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="n">
         <v>16</v>
       </c>
@@ -1545,7 +1537,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>17</v>
       </c>
@@ -1569,7 +1561,7 @@
       </c>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>18</v>
       </c>
@@ -1593,7 +1585,7 @@
       </c>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="n">
         <v>19</v>
       </c>
@@ -1623,7 +1615,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>20</v>
       </c>
@@ -1646,7 +1638,7 @@
       </c>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>21</v>
       </c>
@@ -1669,7 +1661,7 @@
       </c>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="n">
         <v>22</v>
       </c>
@@ -1698,7 +1690,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -1721,7 +1713,7 @@
       </c>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -1744,7 +1736,7 @@
       </c>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="n">
         <v>25</v>
       </c>
@@ -1773,7 +1765,7 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -1797,7 +1789,7 @@
       </c>
       <c r="R30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>27</v>
       </c>
@@ -1811,7 +1803,7 @@
       </c>
       <c r="G31" s="19"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="23"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1814,7 @@
       </c>
       <c r="R31" s="19"/>
     </row>
-    <row r="32" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="n">
         <v>28</v>
       </c>
@@ -1851,7 +1843,7 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>29</v>
       </c>
@@ -1874,7 +1866,7 @@
       </c>
       <c r="R33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>30</v>
       </c>
@@ -1897,22 +1889,22 @@
       </c>
       <c r="R34" s="19"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="27"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="26"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1936,7 +1928,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A3:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
@@ -1956,9 +1948,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1980,7 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2005,7 +1995,7 @@
       <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -2024,18 +2014,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="29"/>
       <c r="I5" s="19"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +2049,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2079,7 +2069,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -2103,32 +2093,32 @@
       <c r="N8" s="14"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+    <row r="9" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9"/>
@@ -2151,8 +2141,8 @@
       <c r="N10" s="22"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+    <row r="11" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="9"/>
@@ -2175,8 +2165,8 @@
       <c r="N11" s="22"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+    <row r="12" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="9"/>
@@ -2199,32 +2189,32 @@
       <c r="N12" s="22"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+    <row r="13" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9"/>
@@ -2247,8 +2237,8 @@
       <c r="N14" s="22"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+    <row r="15" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
@@ -2271,8 +2261,8 @@
       <c r="N15" s="22"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
+    <row r="16" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="9"/>
@@ -2295,44 +2285,44 @@
       <c r="N16" s="22"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+    <row r="17" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2355,7 +2345,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
@@ -2373,9 +2363,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="23.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2386,7 +2375,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2409,21 +2398,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="30"/>
-      <c r="J4" s="38" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="29"/>
+      <c r="J4" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2433,15 +2422,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="19"/>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="9"/>
@@ -2451,15 +2440,15 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="19"/>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2469,15 +2458,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="19"/>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -2488,8 +2477,8 @@
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="39" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="9"/>
@@ -2500,8 +2489,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="39" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9"/>
@@ -2512,8 +2501,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="9"/>
@@ -2524,8 +2513,8 @@
       </c>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="9"/>
@@ -2536,11 +2525,11 @@
       <c r="G12" s="1"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="9"/>
@@ -2551,11 +2540,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -2566,8 +2555,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="42" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="41" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="9"/>
@@ -2578,27 +2567,27 @@
       <c r="G15" s="1"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="H16" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2619,10 +2608,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A3:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2633,19 +2622,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2655,20 +2642,21 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
@@ -2690,372 +2678,486 @@
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="S4" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="47"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="46"/>
       <c r="F5" s="20"/>
-      <c r="H5" s="47"/>
-      <c r="J5" s="20"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="30"/>
-      <c r="R5" s="40" t="s">
+      <c r="H5" s="46"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="29"/>
+      <c r="S5" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="H6" s="51" t="s">
+      <c r="B6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="H6" s="50" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="19"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="19"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="42" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="19"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="43" t="s">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="1"/>
+      <c r="J8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="H9" s="55" t="s">
-        <v>19</v>
-      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="42"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="19"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="19"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="s">
+      <c r="I11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="19"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="H12" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="19"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="H14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="19"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="19"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="H15" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="19"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="H18" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="19"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="19"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="19"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="19"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="27"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="26"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:Q3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3072,7 +3174,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A3:P15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
@@ -3096,14 +3198,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3120,15 +3220,15 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -3154,199 +3254,199 @@
       <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="F5" s="47"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="F5" s="46"/>
       <c r="H5" s="20"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
-      <c r="P5" s="40" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
+      <c r="P5" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="42" t="s">
+      <c r="F6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="50"/>
+      <c r="A7" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="49"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="P7" s="43" t="s">
+      <c r="F7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
+      <c r="P7" s="42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="50"/>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="49"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="50"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="49"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="69"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="74" t="s">
+      <c r="F9" s="68"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="68"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="69"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="74" t="s">
+      <c r="F10" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="68"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="69"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="74" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="68"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="26"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3388,246 +3488,246 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="37" t="s">
-        <v>74</v>
+      <c r="B3" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>80</v>
+      <c r="F4" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
-        <v>81</v>
+      <c r="B5" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>82</v>
+      <c r="F5" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
-        <v>83</v>
+      <c r="B6" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>84</v>
+      <c r="F6" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="s">
-        <v>85</v>
+      <c r="B7" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>84</v>
+      <c r="F7" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="s">
-        <v>86</v>
+      <c r="B8" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>87</v>
+      <c r="F8" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="s">
-        <v>88</v>
+      <c r="B9" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>89</v>
+      <c r="F9" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="37" t="s">
-        <v>90</v>
+      <c r="B10" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>89</v>
+      <c r="F10" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="s">
-        <v>91</v>
+      <c r="B11" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="37" t="s">
-        <v>92</v>
+      <c r="B12" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="s">
-        <v>93</v>
+      <c r="B13" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="37" t="s">
-        <v>94</v>
+      <c r="B14" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="37" t="s">
-        <v>74</v>
+      <c r="B15" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -3637,11 +3737,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="37" t="s">
-        <v>79</v>
+      <c r="B16" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -3649,16 +3749,16 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -3666,16 +3766,16 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="75" t="s">
-        <v>97</v>
+      <c r="F17" s="74" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="37" t="s">
-        <v>83</v>
+      <c r="B18" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -3685,11 +3785,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="37" t="s">
-        <v>85</v>
+      <c r="B19" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -3699,11 +3799,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="37" t="s">
-        <v>86</v>
+      <c r="B20" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -3711,16 +3811,16 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="75" t="s">
-        <v>98</v>
+      <c r="F20" s="74" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="37" t="s">
-        <v>88</v>
+      <c r="B21" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -3730,11 +3830,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="37" t="s">
-        <v>90</v>
+      <c r="B22" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3744,11 +3844,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="37" t="s">
-        <v>91</v>
+      <c r="B23" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3758,11 +3858,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="37" t="s">
-        <v>92</v>
+      <c r="B24" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3772,11 +3872,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
-        <v>93</v>
+      <c r="B25" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3786,11 +3886,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="37" t="s">
-        <v>94</v>
+      <c r="B26" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3800,11 +3900,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="37" t="s">
-        <v>74</v>
+      <c r="B27" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -3814,11 +3914,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="37" t="s">
-        <v>79</v>
+      <c r="B28" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -3828,11 +3928,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37" t="s">
-        <v>81</v>
+      <c r="B29" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -3842,11 +3942,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37" t="s">
-        <v>83</v>
+      <c r="B30" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -3856,11 +3956,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="37" t="s">
-        <v>85</v>
+      <c r="B31" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -3870,11 +3970,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37" t="s">
-        <v>86</v>
+      <c r="B32" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -3884,11 +3984,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="37" t="s">
-        <v>88</v>
+      <c r="B33" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -3898,11 +3998,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="37" t="s">
-        <v>90</v>
+      <c r="B34" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -3912,11 +4012,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="37" t="s">
-        <v>91</v>
+      <c r="B35" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -3926,11 +4026,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="37" t="s">
-        <v>92</v>
+      <c r="B36" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -3940,11 +4040,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="37" t="s">
-        <v>93</v>
+      <c r="B37" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -3954,11 +4054,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="37" t="s">
-        <v>94</v>
+      <c r="B38" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="102">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">Teacher → BadgeInteraction → BadgeEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher → BadgeInteraction → BadgeRemoval</t>
   </si>
   <si>
     <t xml:space="preserve">Backpackpage → Login</t>
@@ -2611,7 +2614,7 @@
   <dimension ref="A3:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2992,7 +2995,9 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
+      <c r="A17" s="55" t="s">
+        <v>61</v>
+      </c>
       <c r="B17" s="53"/>
       <c r="C17" s="48"/>
       <c r="D17" s="56" t="s">
@@ -3016,7 +3021,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="48"/>
@@ -3203,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3225,10 +3230,10 @@
         <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -3301,7 +3306,7 @@
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="71" t="s">
@@ -3327,7 +3332,7 @@
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="71" t="s">
@@ -3350,7 +3355,7 @@
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="71" t="s">
@@ -3446,7 +3451,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3488,193 +3493,193 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -3682,13 +3687,13 @@
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3696,13 +3701,13 @@
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3710,13 +3715,13 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3724,10 +3729,10 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -3738,10 +3743,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -3750,15 +3755,15 @@
         <v>7</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -3767,15 +3772,15 @@
         <v>7</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -3786,10 +3791,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -3800,10 +3805,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -3812,15 +3817,15 @@
         <v>7</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -3831,10 +3836,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3845,10 +3850,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3859,10 +3864,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3873,10 +3878,10 @@
     </row>
     <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3887,10 +3892,10 @@
     </row>
     <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3901,10 +3906,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -3915,10 +3920,10 @@
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -3929,10 +3934,10 @@
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -3943,10 +3948,10 @@
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -3957,10 +3962,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -3971,10 +3976,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -3985,10 +3990,10 @@
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -3999,10 +4004,10 @@
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -4013,10 +4018,10 @@
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -4027,10 +4032,10 @@
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -4041,10 +4046,10 @@
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -4055,10 +4060,10 @@
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="110">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -87,6 +87,18 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">WoEditBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WoCopyRegularBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WoCopyMicroBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WoCopyExtraBadge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type badge</t>
   </si>
   <si>
@@ -153,12 +165,18 @@
     <t xml:space="preserve">Badge delen</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOCK → always invalid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badge valideren - valide</t>
   </si>
   <si>
     <t xml:space="preserve">Badge valideren - invalide</t>
   </si>
   <si>
+    <t xml:space="preserve">low prio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badge intrekken - MBO</t>
   </si>
   <si>
@@ -174,12 +192,18 @@
     <t xml:space="preserve">Aangevraagde badge toekennen</t>
   </si>
   <si>
+    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Delete</t>
+  </si>
+  <si>
     <t xml:space="preserve">Issuer groep verwijderen</t>
   </si>
   <si>
     <t xml:space="preserve">Instituut verwijderen</t>
   </si>
   <si>
+    <t xml:space="preserve">student19@university-example.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rechten betreffende</t>
   </si>
   <si>
@@ -231,7 +255,7 @@
     <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Edit</t>
   </si>
   <si>
-    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Delete</t>
+    <t xml:space="preserve">EntityControl → UserManagement → Invite new user</t>
   </si>
   <si>
     <t xml:space="preserve">NOTE: all tests were performed on university-example, which is a WO institution</t>
@@ -347,7 +371,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -571,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,6 +767,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,10 +799,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,10 +881,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1055,866 +1082,886 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R35"/>
+  <dimension ref="A3:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <f aca="false">COUNT(A5:A34)</f>
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="n">
+        <f aca="false">COUNT(B5:B35)</f>
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="5"/>
+      <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="17"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="18"/>
-      <c r="O5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="14"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="18"/>
+      <c r="P5" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="R5" s="14"/>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="20"/>
-      <c r="O6" s="9"/>
-      <c r="Q6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="P6" s="9"/>
+      <c r="R6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="I8" s="9"/>
-      <c r="M8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="Q8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="21"/>
-      <c r="O9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="21"/>
+      <c r="P8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="O10" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="P9" s="9"/>
+      <c r="R9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="I12" s="9"/>
-      <c r="M12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="9"/>
-      <c r="Q12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="21"/>
-      <c r="O13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="21"/>
+      <c r="P11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="G14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="O14" s="9"/>
-      <c r="Q14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="H12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="P12" s="9"/>
+      <c r="R12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="G15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="H13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="21"/>
+      <c r="P14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="G16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="M16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="9"/>
+      <c r="N15" s="20"/>
+      <c r="P15" s="9"/>
+      <c r="R15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="J16" s="9"/>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="14"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="21"/>
-      <c r="O17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="21"/>
+      <c r="P17" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="O18" s="9"/>
-      <c r="Q18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="20"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="19"/>
-    </row>
-    <row r="20" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="P18" s="9"/>
+      <c r="R18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="21"/>
-      <c r="O20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="20"/>
-      <c r="O21" s="9"/>
-      <c r="Q21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="19"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="I22" s="9"/>
-      <c r="K22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="19"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="H21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="P21" s="9"/>
+      <c r="R21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="H22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="L22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="21"/>
+      <c r="P23" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="R23" s="14"/>
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="G24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="O24" s="9"/>
-      <c r="Q24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="19"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="B24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="E24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="20"/>
+      <c r="P24" s="9"/>
+      <c r="R24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="E25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="20"/>
+      <c r="P25" s="9"/>
+      <c r="R25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="G25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="K25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="19"/>
-    </row>
-    <row r="26" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="B26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="J26" s="9"/>
+      <c r="N26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="21"/>
+      <c r="P27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="E28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="20"/>
+      <c r="P28" s="9"/>
+      <c r="R28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="21"/>
-      <c r="O26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="B29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="J29" s="9"/>
+      <c r="N29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="R29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="20"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="21"/>
+      <c r="P31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="H32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="20"/>
+      <c r="P32" s="9"/>
+      <c r="R32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="D27" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="O27" s="9"/>
-      <c r="Q27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R27" s="19"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="I28" s="9"/>
-      <c r="K28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="20"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" s="19"/>
-    </row>
-    <row r="29" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="21"/>
-      <c r="O29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="O30" s="9"/>
-      <c r="Q30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R30" s="19"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R31" s="19"/>
-    </row>
-    <row r="32" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
-        <v>28</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="21"/>
-      <c r="O32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="G33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" s="20"/>
-      <c r="O33" s="9"/>
-      <c r="Q33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R33" s="19"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="D34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="G34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="K34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="20"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="19"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="E33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="H33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="N33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="R33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="H34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="L34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="20"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="23"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
-      <c r="M35" s="26"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="26"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="24"/>
-      <c r="R35" s="25"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1931,7 +1978,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
@@ -1951,14 +1998,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1987,19 +2036,19 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -2014,10 +2063,10 @@
         <v>18</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="27"/>
       <c r="D5" s="29"/>
@@ -2028,7 +2077,7 @@
       <c r="N5" s="27"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -2052,7 +2101,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2121,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -2088,6 +2137,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="15"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="13" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2146,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
         <v>19</v>
       </c>
@@ -2112,6 +2162,7 @@
       <c r="I9" s="33" t="s">
         <v>19</v>
       </c>
+      <c r="J9" s="30"/>
       <c r="K9" s="31"/>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
@@ -2120,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2195,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
         <v>19</v>
       </c>
@@ -2160,6 +2211,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="19"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="9"/>
       <c r="L11" s="22" t="s">
         <v>19</v>
@@ -2168,7 +2220,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
         <v>19</v>
       </c>
@@ -2192,7 +2244,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
@@ -2208,6 +2260,7 @@
       <c r="I13" s="33" t="s">
         <v>19</v>
       </c>
+      <c r="J13" s="30"/>
       <c r="K13" s="31"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
@@ -2216,7 +2269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
@@ -2232,6 +2285,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="19"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="9"/>
       <c r="L14" s="22" t="s">
         <v>19</v>
@@ -2240,7 +2294,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
         <v>19</v>
       </c>
@@ -2256,6 +2310,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="19"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="9"/>
       <c r="L15" s="22" t="s">
         <v>19</v>
@@ -2264,7 +2319,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -2280,6 +2335,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="19"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="9"/>
       <c r="L16" s="22" t="s">
         <v>19</v>
@@ -2288,7 +2344,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
         <v>19</v>
       </c>
@@ -2304,6 +2360,7 @@
       <c r="I17" s="33" t="s">
         <v>19</v>
       </c>
+      <c r="J17" s="30"/>
       <c r="K17" s="31"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -2312,7 +2369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
@@ -2348,10 +2405,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2366,9 +2423,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="23.43"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -2378,12 +2436,12 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>15</v>
@@ -2398,25 +2456,25 @@
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="29"/>
       <c r="J4" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>19</v>
@@ -2426,15 +2484,15 @@
       <c r="G5" s="1"/>
       <c r="H5" s="19"/>
       <c r="J5" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
@@ -2444,15 +2502,15 @@
       <c r="G6" s="1"/>
       <c r="H6" s="19"/>
       <c r="J6" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>19</v>
@@ -2462,15 +2520,15 @@
       <c r="G7" s="1"/>
       <c r="H7" s="19"/>
       <c r="J7" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
@@ -2480,9 +2538,12 @@
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" s="39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
@@ -2492,9 +2553,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="39" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="1"/>
@@ -2504,9 +2565,12 @@
       <c r="G10" s="1"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B11" s="39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
@@ -2516,9 +2580,12 @@
       </c>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
@@ -2528,12 +2595,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
@@ -2543,12 +2610,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
@@ -2558,39 +2625,50 @@
       <c r="G14" s="1"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="41" t="s">
-        <v>49</v>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="45" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43" t="s">
-        <v>27</v>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2611,10 +2689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:S23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2634,23 +2712,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="H3" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2659,24 +2739,24 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
@@ -2685,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
@@ -2700,16 +2780,16 @@
         <v>18</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="46"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="49"/>
       <c r="F5" s="20"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="49"/>
       <c r="K5" s="20"/>
       <c r="M5" s="3"/>
       <c r="N5" s="27"/>
@@ -2717,21 +2797,21 @@
       <c r="P5" s="27"/>
       <c r="Q5" s="29"/>
       <c r="S5" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="51"/>
+      <c r="H6" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="1"/>
@@ -2741,26 +2821,26 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="51"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1"/>
@@ -2769,27 +2849,27 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="51"/>
       <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="19"/>
@@ -2797,46 +2877,46 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="47" t="s">
         <v>19</v>
       </c>
       <c r="S8" s="42"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="51"/>
       <c r="H9" s="9"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="54" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="H10" s="54" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="51"/>
+      <c r="H10" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="1"/>
@@ -2850,17 +2930,17 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="51"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="56" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1"/>
@@ -2873,18 +2953,18 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="51"/>
       <c r="H12" s="9"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="56" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="19"/>
@@ -2896,19 +2976,19 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="51"/>
       <c r="H13" s="9"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="56" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="9"/>
@@ -2919,18 +2999,18 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="H14" s="56" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="51"/>
+      <c r="H14" s="58" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="1"/>
@@ -2944,19 +3024,19 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="58" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="1"/>
@@ -2969,20 +3049,20 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="51"/>
       <c r="H16" s="9"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="58" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="19"/>
@@ -2994,21 +3074,21 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="51"/>
       <c r="H17" s="9"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="58" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="9"/>
@@ -3019,18 +3099,18 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="H18" s="58" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="H18" s="60" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="1"/>
@@ -3044,18 +3124,18 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="50" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="1"/>
@@ -3065,23 +3145,23 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="59" t="s">
+      <c r="Q19" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="61" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
@@ -3090,24 +3170,24 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="59" t="s">
+      <c r="Q20" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="61" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="19"/>
@@ -3115,38 +3195,38 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="44"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="59" t="s">
+      <c r="Q21" s="47"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="61" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="54" t="s">
         <v>19</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="Q22" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="26"/>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
@@ -3179,10 +3259,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3203,17 +3283,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3225,15 +3307,15 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -3242,7 +3324,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
@@ -3257,191 +3339,194 @@
         <v>18</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P4" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="F5" s="49"/>
+      <c r="H5" s="20"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="P5" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="F5" s="46"/>
-      <c r="H5" s="20"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
-      <c r="P5" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="69" t="s">
+      <c r="F6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="51"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="49"/>
+      <c r="A7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="51"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
+      <c r="F7" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="51"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="51"/>
       <c r="P7" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="A8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="51"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="49"/>
+      <c r="A9" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="51"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="68"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="73" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="51"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="70"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="68"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="73" t="s">
+      <c r="F10" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="51"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="45"/>
+      <c r="N10" s="51"/>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="68"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="73" t="s">
+      <c r="F11" s="70"/>
+      <c r="G11" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="51"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="70"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="45"/>
+      <c r="N12" s="51"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="26"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="26"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24"/>
@@ -3449,9 +3534,10 @@
       <c r="M13" s="24"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3493,193 +3579,193 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="36" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="36" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -3687,13 +3773,13 @@
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3701,13 +3787,13 @@
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3715,13 +3801,13 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3729,10 +3815,10 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="36" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -3743,10 +3829,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="36" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -3754,16 +3840,16 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="74" t="s">
-        <v>98</v>
+      <c r="F16" s="75" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="36" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -3771,16 +3857,16 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>99</v>
+      <c r="F17" s="75" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="36" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -3791,10 +3877,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -3805,10 +3891,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="36" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -3816,16 +3902,16 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="74" t="s">
-        <v>100</v>
+      <c r="F20" s="75" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -3836,10 +3922,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3850,10 +3936,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3864,10 +3950,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3878,10 +3964,10 @@
     </row>
     <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3892,10 +3978,10 @@
     </row>
     <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3906,10 +3992,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -3920,10 +4006,10 @@
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="36" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -3934,10 +4020,10 @@
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="36" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -3948,10 +4034,10 @@
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="36" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -3962,10 +4048,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -3976,10 +4062,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -3990,10 +4076,10 @@
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -4004,10 +4090,10 @@
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -4018,10 +4104,10 @@
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -4032,10 +4118,10 @@
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -4046,10 +4132,10 @@
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -4060,10 +4146,10 @@
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="111">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">WoEditBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WoRemoveBadge</t>
   </si>
   <si>
     <t xml:space="preserve">WoCopyRegularBadge</t>
@@ -403,6 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
         <bgColor rgb="FFF1AB83"/>
       </patternFill>
@@ -423,12 +432,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.3999"/>
         <bgColor rgb="FFFFA6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -594,7 +597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,6 +650,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,6 +678,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,6 +694,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,50 +734,50 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,7 +786,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,19 +842,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,12 +1104,13 @@
   <dimension ref="A3:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
@@ -1105,7 +1125,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="n">
-        <f aca="false">COUNT(B5:B35)</f>
+        <f aca="false">COUNTA(B5:B35)</f>
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1180,37 +1200,37 @@
       </c>
     </row>
     <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="18"/>
-      <c r="P5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="19"/>
+      <c r="P5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>2</v>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>19</v>
@@ -1218,21 +1238,21 @@
       <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
       <c r="J6" s="9"/>
       <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="22"/>
       <c r="P6" s="9"/>
       <c r="R6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="19"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>3</v>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>19</v>
@@ -1240,50 +1260,50 @@
       <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
       <c r="J7" s="9"/>
       <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="22"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="19"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="21"/>
-      <c r="P8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="23"/>
+      <c r="P8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <v>6</v>
+      <c r="B9" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
@@ -1292,21 +1312,21 @@
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="21"/>
       <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="20"/>
+      <c r="N9" s="22"/>
       <c r="P9" s="9"/>
       <c r="R9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="19"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>7</v>
+      <c r="B10" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>19</v>
@@ -1315,123 +1335,123 @@
       <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="21"/>
       <c r="J10" s="9"/>
       <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="22"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="19"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="21"/>
-      <c r="P11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="23"/>
+      <c r="P11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
-        <v>10</v>
+      <c r="B12" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="20"/>
+      <c r="N12" s="22"/>
       <c r="P12" s="9"/>
       <c r="R12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="19"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
-        <v>11</v>
+      <c r="B13" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="9"/>
       <c r="L13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="20"/>
+      <c r="N13" s="22"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="19"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="21"/>
-      <c r="P14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15"/>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="23"/>
+      <c r="P14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>14</v>
+      <c r="B15" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="1" t="s">
@@ -1440,21 +1460,21 @@
       <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="21"/>
       <c r="J15" s="9"/>
       <c r="K15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="20"/>
+      <c r="N15" s="22"/>
       <c r="P15" s="9"/>
       <c r="R15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="19"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
-        <v>15</v>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
@@ -1463,50 +1483,50 @@
       <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="21"/>
       <c r="J16" s="9"/>
       <c r="L16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="20"/>
+      <c r="N16" s="22"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="19"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="21"/>
-      <c r="P17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="23"/>
+      <c r="P17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
-        <v>17</v>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
@@ -1516,21 +1536,21 @@
       <c r="G18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="21"/>
       <c r="J18" s="9"/>
       <c r="K18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="20"/>
+      <c r="N18" s="22"/>
       <c r="P18" s="9"/>
       <c r="R18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="19"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
-        <v>18</v>
+      <c r="B19" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
@@ -1540,179 +1560,183 @@
       <c r="G19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="21"/>
       <c r="J19" s="9"/>
       <c r="L19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="20"/>
+      <c r="N19" s="22"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="19"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="21"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="15"/>
+      <c r="P20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
-        <v>20</v>
+      <c r="B21" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="20"/>
+      <c r="N21" s="22"/>
       <c r="P21" s="9"/>
       <c r="R21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="19"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
-        <v>21</v>
+      <c r="B22" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="9"/>
       <c r="L22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="20"/>
+      <c r="N22" s="22"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="19"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="21"/>
-      <c r="P23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="23"/>
+      <c r="P23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>23</v>
+      <c r="B24" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="21"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="20"/>
+      <c r="K24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="22"/>
       <c r="P24" s="9"/>
       <c r="R24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="19"/>
+      <c r="S24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
-        <v>24</v>
+      <c r="A25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="21"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="20"/>
+      <c r="N25" s="22"/>
       <c r="P25" s="9"/>
       <c r="R25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S25" s="19"/>
+      <c r="S25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>25</v>
+      <c r="A26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C26" s="9"/>
       <c r="E26" s="1" t="s">
@@ -1721,76 +1745,76 @@
       <c r="F26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="21"/>
       <c r="J26" s="9"/>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="22" t="s">
         <v>19</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S26" s="19"/>
+      <c r="S26" s="21"/>
     </row>
     <row r="27" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="12" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="21"/>
-      <c r="P27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="15"/>
+      <c r="B27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="23"/>
+      <c r="P27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
-        <v>27</v>
+      <c r="B28" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="21"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="20"/>
+      <c r="K28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="22"/>
       <c r="P28" s="9"/>
       <c r="R28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S28" s="19"/>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>28</v>
+      <c r="A29" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C29" s="9"/>
       <c r="E29" s="1" t="s">
@@ -1800,20 +1824,23 @@
       <c r="G29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="21"/>
       <c r="J29" s="9"/>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="22" t="s">
         <v>19</v>
       </c>
       <c r="P29" s="9"/>
       <c r="R29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="19"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
-        <v>29</v>
+      <c r="A30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C30" s="9"/>
       <c r="E30" s="1" t="s">
@@ -1823,138 +1850,141 @@
       <c r="G30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="21"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="26"/>
       <c r="L30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="20"/>
+      <c r="N30" s="22"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S30" s="19"/>
+      <c r="S30" s="21"/>
     </row>
     <row r="31" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="21"/>
-      <c r="P31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="15"/>
+      <c r="B31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="23"/>
+      <c r="P31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
-        <v>31</v>
+      <c r="B32" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="9"/>
       <c r="E32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N32" s="20"/>
+      <c r="N32" s="22"/>
       <c r="P32" s="9"/>
       <c r="R32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S32" s="19"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>32</v>
+      <c r="A33" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C33" s="9"/>
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="22" t="s">
         <v>19</v>
       </c>
       <c r="P33" s="9"/>
       <c r="R33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S33" s="19"/>
+      <c r="S33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
-        <v>33</v>
+      <c r="A34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C34" s="9"/>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="9"/>
       <c r="L34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="20"/>
+      <c r="N34" s="22"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S34" s="19"/>
+      <c r="S34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="26"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="25"/>
+      <c r="B35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="30"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2002,12 +2032,12 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2032,23 +2062,23 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="28" t="s">
         <v>30</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -2063,43 +2093,43 @@
         <v>18</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="I5" s="21"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="K6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="21"/>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2108,281 +2138,281 @@
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="21"/>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="21"/>
       <c r="K7" s="9"/>
       <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="15"/>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="16"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="K8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
+      <c r="C10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="21"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+      <c r="L10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="35"/>
+      <c r="C11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
+      <c r="L11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="19"/>
+      <c r="C12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="21"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
+      <c r="L12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="35"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="20"/>
+      <c r="L14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="35"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="20"/>
+      <c r="L16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="34" t="s">
+      <c r="A17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2425,8 +2455,8 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="36" t="s">
-        <v>32</v>
+      <c r="B2" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -2438,10 +2468,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>15</v>
@@ -2456,25 +2486,25 @@
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="37" t="s">
-        <v>35</v>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>37</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>19</v>
@@ -2482,17 +2512,17 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="19"/>
-      <c r="J5" s="39" t="s">
-        <v>38</v>
+      <c r="H5" s="21"/>
+      <c r="J5" s="43" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="44" t="s">
         <v>40</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
@@ -2500,17 +2530,17 @@
         <v>19</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="19"/>
-      <c r="J6" s="41" t="s">
-        <v>41</v>
+      <c r="H6" s="21"/>
+      <c r="J6" s="45" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>42</v>
+      <c r="A7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>19</v>
@@ -2518,17 +2548,17 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="19"/>
-      <c r="J7" s="42" t="s">
-        <v>43</v>
+      <c r="H7" s="21"/>
+      <c r="J7" s="46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="44" t="s">
         <v>45</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
@@ -2536,14 +2566,14 @@
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="39" t="s">
         <v>47</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
@@ -2551,11 +2581,11 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39" t="s">
-        <v>48</v>
+      <c r="B10" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="1"/>
@@ -2563,14 +2593,14 @@
         <v>19</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="39" t="s">
         <v>50</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
@@ -2578,14 +2608,14 @@
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
@@ -2593,14 +2623,14 @@
         <v>19</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="44" t="s">
         <v>53</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
@@ -2608,14 +2638,14 @@
         <v>19</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>54</v>
+      <c r="A14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
@@ -2623,51 +2653,51 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="47" t="s">
         <v>56</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="49" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>57</v>
+      <c r="A16" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2715,22 +2745,22 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>33</v>
+      <c r="A3" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="H3" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2741,22 +2771,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
@@ -2765,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
@@ -2780,215 +2810,215 @@
         <v>18</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="49"/>
-      <c r="F5" s="20"/>
-      <c r="H5" s="49"/>
-      <c r="K5" s="20"/>
+      <c r="B5" s="53"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="53"/>
+      <c r="K5" s="22"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="29"/>
-      <c r="S5" s="39" t="s">
-        <v>38</v>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="33"/>
+      <c r="S5" s="43" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="51"/>
-      <c r="H6" s="52" t="s">
+      <c r="A6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="21"/>
       <c r="M6" s="9"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>41</v>
+      <c r="Q6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="51"/>
+      <c r="A7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="55"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="57" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="21"/>
       <c r="M7" s="9"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>43</v>
+      <c r="Q7" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="51"/>
+      <c r="A8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="55"/>
       <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="19"/>
+      <c r="J8" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="21"/>
       <c r="M8" s="9"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="42"/>
+      <c r="Q8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="51"/>
+      <c r="A9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="55"/>
       <c r="H9" s="9"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="51"/>
-      <c r="H10" s="56" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="H10" s="60" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="21"/>
       <c r="M10" s="9"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="55"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="60" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="21"/>
       <c r="M11" s="9"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="55"/>
       <c r="H12" s="9"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="19"/>
+      <c r="J12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="21"/>
       <c r="M12" s="9"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="55"/>
       <c r="H13" s="9"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="60" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="9"/>
@@ -2997,98 +3027,98 @@
         <v>19</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="51"/>
-      <c r="H14" s="58" t="s">
+      <c r="A14" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="H14" s="62" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="21"/>
       <c r="M14" s="9"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="51"/>
+      <c r="A15" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="55"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="62" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="21"/>
       <c r="M15" s="9"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="51"/>
+      <c r="A16" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="55"/>
       <c r="H16" s="9"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="19"/>
+      <c r="J16" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="21"/>
       <c r="M16" s="9"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="51"/>
+      <c r="A17" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="55"/>
       <c r="H17" s="9"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="62" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="9"/>
@@ -3097,146 +3127,146 @@
         <v>19</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="H18" s="60" t="s">
+      <c r="A18" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="H18" s="64" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="21"/>
       <c r="M18" s="9"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="52" t="s">
+      <c r="A19" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="21"/>
       <c r="M19" s="9"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="47" t="s">
+      <c r="Q19" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="61" t="s">
+      <c r="A20" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="57" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="21"/>
       <c r="M20" s="9"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="47" t="s">
+      <c r="Q20" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="61" t="s">
+      <c r="A21" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="19"/>
+      <c r="J21" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="21"/>
       <c r="M21" s="9"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="47"/>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="61" t="s">
+      <c r="A22" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="58" t="s">
         <v>19</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="47" t="s">
+      <c r="Q22" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="26"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="30"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3287,15 +3317,15 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3309,13 +3339,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -3324,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
@@ -3339,205 +3369,205 @@
         <v>18</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="F5" s="49"/>
-      <c r="H5" s="20"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-      <c r="P5" s="39" t="s">
-        <v>38</v>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="F5" s="53"/>
+      <c r="H5" s="22"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+      <c r="P5" s="43" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="51"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>41</v>
+      <c r="F6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="55"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="51"/>
+      <c r="A7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="55"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="51"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="51"/>
-      <c r="P7" s="42" t="s">
-        <v>43</v>
+      <c r="F7" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="55"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="49"/>
+      <c r="N7" s="55"/>
+      <c r="P7" s="46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="51"/>
+      <c r="A8" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="55"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="51"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="51"/>
+      <c r="A9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="55"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="51"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="74"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="49"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="70"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="74" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="51"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="51"/>
+      <c r="F10" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="55"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="74" t="s">
+      <c r="A11" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="51"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="49"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="70"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="74" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="51"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="74"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="26"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="30"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3579,246 +3609,246 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36" t="s">
-        <v>84</v>
+      <c r="B3" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>90</v>
+      <c r="F4" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
-        <v>91</v>
+      <c r="B5" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>92</v>
+      <c r="F5" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
-        <v>93</v>
+      <c r="B6" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>94</v>
+      <c r="F6" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>95</v>
+      <c r="B7" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>94</v>
+      <c r="F7" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
-        <v>96</v>
+      <c r="B8" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>97</v>
+      <c r="F8" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
-        <v>98</v>
+      <c r="B9" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>99</v>
+      <c r="F9" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="s">
-        <v>100</v>
+      <c r="B10" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>99</v>
+      <c r="F10" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
-        <v>101</v>
+      <c r="B11" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
-        <v>102</v>
+      <c r="B12" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
-        <v>103</v>
+      <c r="B13" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="36" t="s">
-        <v>104</v>
+      <c r="B14" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="36" t="s">
-        <v>84</v>
+      <c r="B15" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -3828,11 +3858,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="36" t="s">
-        <v>89</v>
+      <c r="B16" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -3840,16 +3870,16 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -3857,16 +3887,16 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="75" t="s">
-        <v>107</v>
+      <c r="F17" s="79" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="36" t="s">
-        <v>93</v>
+      <c r="B18" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -3876,11 +3906,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="36" t="s">
-        <v>95</v>
+      <c r="B19" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -3890,11 +3920,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="36" t="s">
-        <v>96</v>
+      <c r="B20" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -3902,16 +3932,16 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="75" t="s">
-        <v>108</v>
+      <c r="F20" s="79" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="36" t="s">
-        <v>98</v>
+      <c r="B21" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -3921,11 +3951,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36" t="s">
-        <v>100</v>
+      <c r="B22" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3935,11 +3965,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="36" t="s">
-        <v>101</v>
+      <c r="B23" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3949,11 +3979,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="36" t="s">
-        <v>102</v>
+      <c r="B24" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3963,11 +3993,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
-        <v>103</v>
+      <c r="B25" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3977,11 +4007,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="36" t="s">
-        <v>104</v>
+      <c r="B26" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3991,11 +4021,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="36" t="s">
-        <v>84</v>
+      <c r="B27" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -4005,11 +4035,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="36" t="s">
-        <v>89</v>
+      <c r="B28" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -4019,11 +4049,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="36" t="s">
-        <v>91</v>
+      <c r="B29" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -4033,11 +4063,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="36" t="s">
-        <v>93</v>
+      <c r="B30" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -4047,11 +4077,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="36" t="s">
-        <v>95</v>
+      <c r="B31" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -4061,11 +4091,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="36" t="s">
-        <v>96</v>
+      <c r="B32" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -4075,11 +4105,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="36" t="s">
-        <v>98</v>
+      <c r="B33" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -4089,11 +4119,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="36" t="s">
-        <v>100</v>
+      <c r="B34" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -4103,11 +4133,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="36" t="s">
-        <v>101</v>
+      <c r="B35" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -4117,11 +4147,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="36" t="s">
-        <v>102</v>
+      <c r="B36" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -4131,11 +4161,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="36" t="s">
-        <v>103</v>
+      <c r="B37" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -4145,11 +4175,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="36" t="s">
-        <v>104</v>
+      <c r="B38" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="111">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -1104,7 +1104,7 @@
   <dimension ref="A3:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1786,6 +1786,9 @@
       <c r="S27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="B28" s="20" t="s">
         <v>19</v>
       </c>
@@ -1893,6 +1896,9 @@
       <c r="S31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="B32" s="20" t="s">
         <v>19</v>
       </c>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="110">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -177,9 +177,6 @@
     <t xml:space="preserve">Badge valideren - invalide</t>
   </si>
   <si>
-    <t xml:space="preserve">low prio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Badge intrekken - MBO</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
     <t xml:space="preserve">Instelling</t>
   </si>
   <si>
+    <t xml:space="preserve">Issuer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badges</t>
   </si>
   <si>
@@ -231,6 +231,18 @@
     <t xml:space="preserve">Verwijderen</t>
   </si>
   <si>
+    <t xml:space="preserve">UserManagement → Issuers → Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManagement → Issuers → Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManagement → Issuers → Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManagement → Issuers → Delete</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teacher → BadgeInteraction → BadgeCreation</t>
   </si>
   <si>
@@ -249,7 +261,7 @@
     <t xml:space="preserve">Issuer group</t>
   </si>
   <si>
-    <t xml:space="preserve">Issuer</t>
+    <t xml:space="preserve">staff user</t>
   </si>
   <si>
     <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Create</t>
@@ -258,7 +270,7 @@
     <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Edit</t>
   </si>
   <si>
-    <t xml:space="preserve">EntityControl → UserManagement → Invite new user</t>
+    <t xml:space="preserve">EntityControl → UserManagement →  WOUser</t>
   </si>
   <si>
     <t xml:space="preserve">NOTE: all tests were performed on university-example, which is a WO institution</t>
@@ -267,12 +279,6 @@
     <t xml:space="preserve">Badgename</t>
   </si>
   <si>
-    <t xml:space="preserve">Instituition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
     <t xml:space="preserve">Badgetype</t>
   </si>
   <si>
@@ -282,15 +288,12 @@
     <t xml:space="preserve">Account</t>
   </si>
   <si>
+    <t xml:space="preserve">NOTES:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Law and Politics</t>
   </si>
   <si>
-    <t xml:space="preserve">university-example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Receive by Student → Backpack → ReceiveBadge</t>
   </si>
   <si>
@@ -309,6 +312,9 @@
     <t xml:space="preserve">Reward by Student → Backpack → ReceiveBadge</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to login by Student → Logout</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cognitive Psychology</t>
   </si>
   <si>
@@ -324,6 +330,9 @@
     <t xml:space="preserve">Request by Student → BasicsCatalog</t>
   </si>
   <si>
+    <t xml:space="preserve">Used by anonymous to look at</t>
+  </si>
+  <si>
     <t xml:space="preserve">Introduction to Political Science</t>
   </si>
   <si>
@@ -339,34 +348,21 @@
     <t xml:space="preserve">Growth and Development</t>
   </si>
   <si>
+    <t xml:space="preserve">Read by Teacher → BadgeInteraction → SeeBadge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regulation and Integration</t>
   </si>
   <si>
     <t xml:space="preserve">Digestion and Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard-example.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read by Teacher → BadgeInteraction → SeeBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read by Student → BasicsCatalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read by Anonymous → Catalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yale-uni-example.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -597,17 +593,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -678,7 +674,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,11 +690,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,6 +734,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,10 +755,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,10 +770,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -842,6 +834,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -912,6 +908,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1103,28 +1103,28 @@
   </sheetPr>
   <dimension ref="A3:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="2" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="2" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <f aca="false">COUNTA(B5:B35)</f>
         <v>31</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -1228,24 +1228,33 @@
       <c r="R5" s="15"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="21"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="22"/>
+      <c r="O6" s="0"/>
       <c r="P6" s="9"/>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="21"/>
@@ -1262,17 +1271,18 @@
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="9"/>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="22"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
@@ -1294,6 +1304,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="23"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="14" t="s">
         <v>19</v>
       </c>
@@ -1301,25 +1312,33 @@
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
       <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="21"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="22"/>
+      <c r="O9" s="0"/>
       <c r="P9" s="9"/>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="21"/>
@@ -1332,22 +1351,23 @@
         <v>19</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="9"/>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="22"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1369,6 +1389,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="23"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="14" t="s">
         <v>19</v>
       </c>
@@ -1376,24 +1397,33 @@
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
       <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="9"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="22"/>
+      <c r="O12" s="0"/>
       <c r="P12" s="9"/>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="21"/>
@@ -1410,17 +1440,18 @@
         <v>19</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="22"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
@@ -1442,6 +1473,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="23"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1462,12 +1494,12 @@
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="22"/>
       <c r="P15" s="9"/>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S15" s="21"/>
@@ -1477,7 +1509,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1485,17 +1517,18 @@
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="9"/>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N16" s="22"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
@@ -1517,6 +1550,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="23"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="14" t="s">
         <v>19</v>
       </c>
@@ -1529,21 +1563,21 @@
         <v>19</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N18" s="22"/>
       <c r="P18" s="9"/>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S18" s="21"/>
@@ -1553,21 +1587,21 @@
         <v>19</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="9"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="22"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S19" s="21"/>
@@ -1608,7 +1642,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="9"/>
@@ -1616,12 +1650,12 @@
         <v>19</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="22"/>
       <c r="P21" s="9"/>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S21" s="21"/>
@@ -1631,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="9"/>
@@ -1639,17 +1673,18 @@
         <v>19</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N22" s="22"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
@@ -1671,6 +1706,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="23"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="14" t="s">
         <v>19</v>
       </c>
@@ -1699,7 +1735,7 @@
       </c>
       <c r="N24" s="22"/>
       <c r="P24" s="9"/>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S24" s="21"/>
@@ -1721,12 +1757,12 @@
       <c r="H25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N25" s="22"/>
       <c r="P25" s="9"/>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S25" s="21"/>
@@ -1739,7 +1775,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1751,12 +1787,13 @@
         <v>19</v>
       </c>
       <c r="P26" s="9"/>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
@@ -1778,6 +1815,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="23"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="14" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="21"/>
@@ -1807,7 +1845,7 @@
       </c>
       <c r="N28" s="22"/>
       <c r="P28" s="9"/>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S28" s="21"/>
@@ -1820,11 +1858,11 @@
         <v>19</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="21"/>
@@ -1833,7 +1871,7 @@
         <v>19</v>
       </c>
       <c r="P29" s="9"/>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S29" s="21"/>
@@ -1846,27 +1884,28 @@
         <v>19</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="9"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N30" s="22"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
         <v>19</v>
       </c>
@@ -1888,6 +1927,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="23"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="14" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1943,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="9"/>
@@ -1911,12 +1951,12 @@
         <v>19</v>
       </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N32" s="22"/>
       <c r="P32" s="9"/>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S32" s="21"/>
@@ -1929,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="9"/>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="9"/>
@@ -1941,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="P33" s="9"/>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S33" s="21"/>
@@ -1954,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="9"/>
@@ -1962,12 +2002,12 @@
         <v>19</v>
       </c>
       <c r="J34" s="9"/>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N34" s="22"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S34" s="21"/>
@@ -2014,417 +2054,433 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="4"/>
+      <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <f aca="false">COUNTA(A5:A21)</f>
+      <c r="B4" s="1" t="n">
+        <f aca="false">COUNTA(B5:B21)</f>
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
-      <c r="I5" s="21"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="31"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="J5" s="21"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="15"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="K6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34"/>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="36"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="26"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="21"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="N10" s="26"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="N11" s="26"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="N12" s="26"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="34"/>
       <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="26"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="N14" s="26"/>
-      <c r="O14" s="22"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="26"/>
+      <c r="B15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="N15" s="26"/>
-      <c r="O15" s="22"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="26"/>
+      <c r="B16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="N16" s="26"/>
-      <c r="O16" s="22"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="34"/>
       <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="38" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="30"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="L3:P3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2444,19 +2500,19 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2473,10 +2529,10 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2515,29 +2571,29 @@
       <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="21"/>
       <c r="J5" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="21"/>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2551,42 +2607,42 @@
       <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="21"/>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,56 +2650,50 @@
         <v>49</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="43" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,43 +2701,43 @@
         <v>37</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
+      <c r="B15" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="51" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2702,8 +2752,8 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="2" t="s">
-        <v>59</v>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2728,45 +2778,45 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="37.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="H3" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2777,10 +2827,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>63</v>
@@ -2823,9 +2873,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="53"/>
+      <c r="B5" s="52"/>
       <c r="F5" s="22"/>
-      <c r="H5" s="53"/>
+      <c r="H5" s="52"/>
       <c r="K5" s="22"/>
       <c r="M5" s="3"/>
       <c r="N5" s="31"/>
@@ -2837,424 +2887,432 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="55"/>
-      <c r="H6" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="54"/>
+      <c r="H6" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="21"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="45" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="54"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="I7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="21"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="46" t="s">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="54"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="56" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="21"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="46"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="54"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="58" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="55"/>
-      <c r="H10" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="54"/>
+      <c r="H10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="21"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="55"/>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="54"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="21"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="21"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="55"/>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="54"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="60" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="55"/>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="54"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="60" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="59" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="54"/>
       <c r="H14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="21"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="54"/>
       <c r="H15" s="9"/>
       <c r="I15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="21"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="49"/>
+        <v>73</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="54"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="62" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="21"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="54"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="62" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="9"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+        <v>75</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="54"/>
       <c r="H18" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="21"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="H19" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="21"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="51" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1"/>
+      <c r="I20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="21"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="51" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="57" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="56" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="21"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="51"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="58" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="57" t="s">
         <v>19</v>
       </c>
       <c r="M22" s="9"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="51" t="s">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3295,89 +3353,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="28.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="Q4" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3385,202 +3447,284 @@
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
-      <c r="F5" s="53"/>
-      <c r="H5" s="22"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
+      <c r="E5" s="70"/>
+      <c r="G5" s="52"/>
+      <c r="I5" s="22"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="72"/>
       <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-      <c r="P5" s="43" t="s">
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
+      <c r="Q5" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="55"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="45" t="s">
+      <c r="B6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="54"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>75</v>
+      <c r="A7" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="74"/>
       <c r="C7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="55"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="55"/>
-      <c r="P7" s="46" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="54"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="48"/>
+      <c r="O7" s="54"/>
+      <c r="Q7" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>76</v>
+      <c r="A8" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="74"/>
       <c r="C8" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="55"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="48"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>56</v>
+      <c r="A9" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="74"/>
       <c r="C9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="55"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="48"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="48"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="B10" s="74"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="55"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="55"/>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>77</v>
+      <c r="C10" s="48"/>
+      <c r="D10" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="54"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="48"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="74"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="55"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="48"/>
+      <c r="D11" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="48"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="B12" s="74"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="55"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="30"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="30"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>78</v>
+      <c r="B13" s="74"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="54"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="74"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="30"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="30"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:O3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3597,613 +3741,233 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="48.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="27.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.68"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="24" t="s">
         <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>89</v>
+      <c r="D5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>89</v>
+      <c r="D6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>89</v>
+      <c r="D7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>89</v>
+      <c r="D8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
+      <c r="D9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
+      <c r="D10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="student19example@gmail.com"/>
-    <hyperlink ref="G4" r:id="rId2" display="student19example@gmail.com"/>
-    <hyperlink ref="G5" r:id="rId3" display="student19example@gmail.com"/>
-    <hyperlink ref="G6" r:id="rId4" display="student19example@gmail.com"/>
-    <hyperlink ref="G7" r:id="rId5" display="student19example@gmail.com"/>
-    <hyperlink ref="G8" r:id="rId6" display="student19example@gmail.com"/>
-    <hyperlink ref="G9" r:id="rId7" display="student19example@gmail.com"/>
-    <hyperlink ref="G10" r:id="rId8" display="student19example@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="student19example@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="student19example@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId3" display="student19example@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId4" display="student19example@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId5" display="student19example@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId6" display="student19example@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId7" display="student19example@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId8" display="student19example@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Badge Aanvragen" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Badge acties" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gebruikers rollen" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Entiteiten beheer" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="BadgeDistribution" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="BadgeClass CRUD" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Badge Aanvragen" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Badge acties" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Gebruikers rollen" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Entiteiten beheer" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="BadgeDistribution" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="117">
+  <si>
+    <t xml:space="preserve">Total amount of testcases:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcases completed:</t>
+  </si>
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -39,6 +46,9 @@
     <t xml:space="preserve">status/verwachte effort</t>
   </si>
   <si>
+    <t xml:space="preserve">Testfile naam</t>
+  </si>
+  <si>
     <t xml:space="preserve">MBO</t>
   </si>
   <si>
@@ -84,22 +94,28 @@
     <t xml:space="preserve">Large effort</t>
   </si>
   <si>
+    <t xml:space="preserve">BadgeCreation</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">WoEditBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WoRemoveBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WoCopyRegularBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WoCopyMicroBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WoCopyExtraBadge</t>
+    <t xml:space="preserve">EditBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RemoveBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badgeCreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyRegularBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyMicroBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyExtraBadge</t>
   </si>
   <si>
     <t xml:space="preserve">Type badge</t>
@@ -126,84 +142,90 @@
     <t xml:space="preserve">Out of scope</t>
   </si>
   <si>
+    <t xml:space="preserve">AwardBadge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generieke badges acties (enkele test case)</t>
   </si>
   <si>
+    <t xml:space="preserve">Actie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actie student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proof of concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge claimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actie teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → ReceiveBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge niet accepteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actie institution admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge publiek maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actie system admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → EditBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge delen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCK → always invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge valideren - valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge valideren - invalide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge intrekken - MBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge intrekken - HBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → BadgeRemoval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badge intrekken - Uni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentInteraction → awardBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aangevraagde badge toekennen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuer groep verwijderen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituut verwijderen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student19@university-example.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Progress</t>
   </si>
   <si>
-    <t xml:space="preserve">Actie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actie student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proof of concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge claimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actie teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student → ReceiveBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge niet accepteren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actie institution admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge publiek maken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actie system admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student → EditBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge delen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCK → always invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge valideren - valide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge valideren - invalide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge intrekken - MBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge intrekken - HBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student → BadgeRemoval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badge intrekken - Uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aangevraagde badge toekennen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issuer groep verwijderen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituut verwijderen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student19@university-example.org</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rechten betreffende</t>
   </si>
   <si>
@@ -273,9 +295,6 @@
     <t xml:space="preserve">EntityControl → UserManagement →  WOUser</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE: all tests were performed on university-example, which is a WO institution</t>
-  </si>
-  <si>
     <t xml:space="preserve">Badgename</t>
   </si>
   <si>
@@ -343,6 +362,9 @@
   </si>
   <si>
     <t xml:space="preserve">Research Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read by Student → BasicsCatalog</t>
   </si>
   <si>
     <t xml:space="preserve">Growth and Development</t>
@@ -361,8 +383,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -370,6 +393,7 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -593,7 +617,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -642,7 +666,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,6 +698,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -691,10 +719,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,10 +778,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,6 +814,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -798,6 +834,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -826,6 +870,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,14 +882,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,10 +956,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1101,10 +1145,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.45"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">SUM('BadgeClass CRUD'!B3,'Badge Aanvragen'!B4,'Badge acties'!C3,'Gebruikers rollen'!B4,'Entiteiten beheer'!B4)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">COUNTA('BadgeClass CRUD'!A5:A34,'Badge Aanvragen'!A5:A18,'Gebruikers rollen'!A4:A23,'Entiteiten beheer'!A4:A16)</f>
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A3:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1129,892 +1218,947 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="J3" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="P3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
       <c r="J5" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="15"/>
       <c r="N5" s="19"/>
       <c r="P5" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="16"/>
     </row>
     <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="2"/>
       <c r="J6" s="9"/>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="0"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
-        <v>19</v>
+      <c r="A7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H7" s="22"/>
       <c r="J7" s="9"/>
       <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N7" s="23"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="12"/>
       <c r="P8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
     <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>19</v>
+      <c r="A9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9"/>
       <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H9" s="22"/>
       <c r="I9" s="2"/>
       <c r="J9" s="9"/>
       <c r="K9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="0"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="s">
-        <v>19</v>
+      <c r="A10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H10" s="22"/>
       <c r="J10" s="9"/>
       <c r="L10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N10" s="23"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="12"/>
       <c r="P11" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
     </row>
     <row r="12" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
-        <v>19</v>
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="21" t="s">
-        <v>19</v>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="9"/>
       <c r="K12" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="0"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="s">
-        <v>19</v>
+      <c r="A13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="H13" s="21" t="s">
-        <v>19</v>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J13" s="9"/>
       <c r="L13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N13" s="23"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="12"/>
       <c r="P14" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20" t="s">
-        <v>19</v>
+      <c r="A15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H15" s="22"/>
       <c r="J15" s="9"/>
       <c r="K15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N15" s="23"/>
       <c r="P15" s="9"/>
       <c r="R15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20" t="s">
-        <v>19</v>
+      <c r="A16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="J16" s="9"/>
       <c r="L16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N16" s="23"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="12"/>
       <c r="P17" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="20" t="s">
-        <v>19</v>
+      <c r="A18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H18" s="22"/>
       <c r="J18" s="9"/>
       <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N18" s="23"/>
       <c r="P18" s="9"/>
       <c r="R18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="20" t="s">
-        <v>19</v>
+      <c r="A19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H19" s="22"/>
       <c r="J19" s="9"/>
       <c r="L19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N19" s="23"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="12"/>
       <c r="P20" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="20" t="s">
-        <v>19</v>
+      <c r="A21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="H21" s="21" t="s">
-        <v>19</v>
+      <c r="H21" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N21" s="23"/>
       <c r="P21" s="9"/>
       <c r="R21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="20" t="s">
-        <v>19</v>
+      <c r="A22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="H22" s="21" t="s">
-        <v>19</v>
+      <c r="H22" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J22" s="9"/>
       <c r="L22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N22" s="23"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="I23" s="15"/>
       <c r="J23" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="23"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="12"/>
       <c r="P23" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>20</v>
+      <c r="A24" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" s="9"/>
       <c r="E24" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H24" s="22"/>
       <c r="J24" s="9"/>
       <c r="K24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="23"/>
       <c r="P24" s="9"/>
       <c r="R24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
-        <v>21</v>
+      <c r="A25" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9"/>
       <c r="E25" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H25" s="22"/>
       <c r="J25" s="9"/>
       <c r="K25" s="26"/>
       <c r="L25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N25" s="23"/>
       <c r="P25" s="9"/>
       <c r="R25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S25" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>22</v>
+      <c r="A26" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26" s="9"/>
       <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H26" s="22"/>
       <c r="J26" s="9"/>
-      <c r="N26" s="22" t="s">
-        <v>19</v>
+      <c r="N26" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S26" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="15"/>
       <c r="J27" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="23"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="12"/>
       <c r="P27" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>19</v>
+      <c r="A28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="9"/>
       <c r="E28" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H28" s="22"/>
       <c r="J28" s="9"/>
       <c r="K28" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="23"/>
       <c r="P28" s="9"/>
       <c r="R28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S28" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>23</v>
+      <c r="A29" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" s="9"/>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H29" s="22"/>
       <c r="J29" s="9"/>
-      <c r="N29" s="22" t="s">
-        <v>19</v>
+      <c r="N29" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="P29" s="9"/>
       <c r="R29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>21</v>
+      <c r="A30" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30" s="9"/>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="H30" s="22"/>
       <c r="J30" s="9"/>
       <c r="K30" s="26"/>
       <c r="L30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N30" s="23"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S30" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B31" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="23"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="12"/>
       <c r="P31" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>19</v>
+      <c r="A32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C32" s="9"/>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="H32" s="21" t="s">
-        <v>19</v>
+      <c r="H32" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N32" s="23"/>
       <c r="P32" s="9"/>
       <c r="R32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
-        <v>24</v>
+      <c r="A33" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33" s="9"/>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="H33" s="21" t="s">
-        <v>19</v>
+      <c r="H33" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="N33" s="22" t="s">
-        <v>19</v>
+      <c r="N33" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="P33" s="9"/>
       <c r="R33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S33" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>21</v>
+      <c r="A34" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34" s="9"/>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="H34" s="21" t="s">
-        <v>19</v>
+      <c r="H34" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J34" s="9"/>
       <c r="L34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="N34" s="23"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S34" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="S34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="20" t="s">
-        <v>19</v>
+      <c r="B35" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="28"/>
@@ -2049,19 +2193,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A3:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S43" activeCellId="0" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.15"/>
@@ -2074,97 +2220,100 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="L3" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B5:B21)</f>
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="3"/>
       <c r="D5" s="31"/>
       <c r="E5" s="33"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="L5" s="3"/>
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
+    <row r="6" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2172,46 +2321,50 @@
       <c r="J6" s="16"/>
       <c r="K6" s="12"/>
       <c r="L6" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="0"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="9"/>
       <c r="M7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -2219,25 +2372,27 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="12"/>
       <c r="L8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
@@ -2246,102 +2401,107 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="36"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
       <c r="P9" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="B10" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="22"/>
       <c r="F10" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="35"/>
       <c r="L10" s="9"/>
       <c r="M10" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="E11" s="22"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="35"/>
       <c r="L11" s="9"/>
       <c r="M11" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="J12" s="22"/>
       <c r="K12" s="35"/>
       <c r="L12" s="9"/>
       <c r="M12" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="37"/>
@@ -2349,7 +2509,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="36"/>
@@ -2357,100 +2517,108 @@
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
       <c r="P13" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="B14" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="21" t="s">
-        <v>19</v>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="35"/>
       <c r="L14" s="9"/>
       <c r="M14" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="21" t="s">
-        <v>19</v>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="35"/>
       <c r="L15" s="9"/>
       <c r="M15" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="B16" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="21" t="s">
-        <v>19</v>
+      <c r="E16" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="J16" s="22"/>
       <c r="K16" s="35"/>
       <c r="L16" s="9"/>
       <c r="M16" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="B17" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="36"/>
@@ -2458,10 +2626,10 @@
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2492,21 +2660,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.86"/>
@@ -2515,828 +2684,286 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="40" t="s">
-        <v>33</v>
+      <c r="B2" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="42" t="n">
+        <f aca="false">COUNTA(C5:C17)</f>
+        <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>38</v>
+      <c r="J4" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="21"/>
-      <c r="J5" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>41</v>
+      <c r="H5" s="22"/>
+      <c r="J5" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="21"/>
-      <c r="J6" s="44" t="s">
+      <c r="H6" s="22"/>
+      <c r="J6" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>43</v>
+      <c r="B7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="21"/>
-      <c r="J7" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>46</v>
+      <c r="H7" s="22"/>
+      <c r="J7" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="43" t="s">
-        <v>49</v>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="43" t="s">
-        <v>50</v>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="43" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>53</v>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>54</v>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>56</v>
+      <c r="A15" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="48" t="s">
-        <v>19</v>
+      <c r="F15" s="51" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>57</v>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="M3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="52"/>
-      <c r="F5" s="22"/>
-      <c r="H5" s="52"/>
-      <c r="K5" s="22"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="33"/>
-      <c r="S5" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="54"/>
-      <c r="H6" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="21"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="54"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="21"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="54"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="45"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="54"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="54"/>
-      <c r="H10" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="54"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="54"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="54"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="54"/>
-      <c r="H14" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="54"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="54"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="54"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="H18" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="50"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="30"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:Q3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3353,378 +2980,623 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
-        <v>61</v>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="54" t="n">
+        <f aca="false">COUNTA(B6:B23)</f>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="57"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="57"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="33"/>
+      <c r="T5" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="59"/>
+      <c r="I6" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="22"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="59"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="22"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="59"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="47"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="59"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="59"/>
+      <c r="I10" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="22"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="59"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="22"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B12" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="59"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="G5" s="52"/>
-      <c r="I5" s="22"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
-      <c r="Q5" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="54"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="B13" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="59"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="54"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="54"/>
-      <c r="Q7" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="B14" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="59"/>
+      <c r="I14" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="22"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="59"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="22"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="54"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="74"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="54"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="54"/>
-    </row>
-    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="B16" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="59"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="54"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="30"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="30"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="59"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="66" t="s">
         <v>82</v>
       </c>
+      <c r="B18" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="I18" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="22"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="22"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="22"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="53"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="30"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:R3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3741,10 +3613,424 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A3:R16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="54" t="n">
+        <f aca="false">COUNTA(B6:B16)</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="H5" s="57"/>
+      <c r="J5" s="23"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="R5" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="59"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="59"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="51"/>
+      <c r="P7" s="59"/>
+      <c r="R7" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="51"/>
+      <c r="P8" s="59"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="80"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="51"/>
+      <c r="P9" s="59"/>
+    </row>
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="59"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="59"/>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="51"/>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="80"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="59"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="80"/>
+      <c r="I14" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="80"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="59"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="30"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="30"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:P3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3753,178 +4039,180 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.68"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40" t="s">
-        <v>88</v>
+      <c r="B3" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40" t="s">
-        <v>91</v>
+      <c r="B4" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="40" t="s">
-        <v>93</v>
+      <c r="B5" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="s">
-        <v>98</v>
+      <c r="B7" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
-        <v>99</v>
+      <c r="B8" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
-        <v>102</v>
+      <c r="B9" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40" t="s">
-        <v>104</v>
+      <c r="B10" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
-        <v>105</v>
+      <c r="B11" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="79"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
-        <v>106</v>
+      <c r="B12" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="s">
-        <v>108</v>
+      <c r="B13" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="40" t="s">
-        <v>109</v>
+      <c r="B14" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,7 +14,7 @@
     <sheet name="Badge acties" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Gebruikers rollen" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="Entiteiten beheer" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="BadgeDistribution" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Badge distribution" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="118">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">student19example@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used by Invite to invite badgeclassadmin</t>
   </si>
   <si>
     <t xml:space="preserve">Circulation and Breathing</t>
@@ -383,9 +386,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -617,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -778,18 +780,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,14 +828,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -868,10 +854,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1145,7 +1127,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:C4"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
@@ -1153,23 +1135,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.45"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">SUM('BadgeClass CRUD'!B3,'Badge Aanvragen'!B4,'Badge acties'!C3,'Gebruikers rollen'!B4,'Entiteiten beheer'!B4)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">COUNTA('BadgeClass CRUD'!A5:A34,'Badge Aanvragen'!A5:A18,'Gebruikers rollen'!A4:A23,'Entiteiten beheer'!A4:A16)</f>
         <v>66</v>
       </c>
@@ -2200,14 +2184,14 @@
   </sheetPr>
   <dimension ref="A3:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S43" activeCellId="0" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.15"/>
@@ -2241,7 +2225,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2505,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -2574,7 +2558,7 @@
       <c r="P15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -2673,9 +2657,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.86"/>
@@ -2685,7 +2669,7 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2703,7 +2687,7 @@
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">COUNTA(C5:C17)</f>
         <v>12</v>
       </c>
@@ -2729,18 +2713,18 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2750,7 +2734,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="22"/>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2758,10 +2742,10 @@
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9"/>
@@ -2771,18 +2755,18 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="22"/>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2792,7 +2776,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="22"/>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2800,10 +2784,10 @@
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9"/>
@@ -2818,10 +2802,10 @@
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
@@ -2833,10 +2817,10 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="9"/>
@@ -2848,10 +2832,10 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="9"/>
@@ -2863,10 +2847,10 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="9"/>
@@ -2877,14 +2861,14 @@
       <c r="G12" s="2"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="9"/>
@@ -2895,14 +2879,14 @@
       <c r="G13" s="2"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -2914,38 +2898,38 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2989,7 +2973,7 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35"/>
@@ -3008,7 +2992,7 @@
       <c r="A3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
@@ -3016,12 +3000,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="N3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3015,7 @@
       <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="54" t="n">
+      <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
       </c>
@@ -3077,39 +3061,39 @@
       <c r="R4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="57"/>
+      <c r="C5" s="53"/>
       <c r="G5" s="23"/>
-      <c r="I5" s="57"/>
+      <c r="I5" s="53"/>
       <c r="L5" s="23"/>
       <c r="N5" s="3"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="33"/>
-      <c r="T5" s="45" t="s">
+      <c r="T5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="59"/>
-      <c r="I6" s="60" t="s">
+      <c r="B6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="56" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2"/>
@@ -3119,29 +3103,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="46" t="s">
+      <c r="R6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="55"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="2"/>
@@ -3150,30 +3134,30 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="47" t="s">
+      <c r="R7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="55"/>
       <c r="I8" s="9"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="22"/>
@@ -3181,54 +3165,54 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="47"/>
+      <c r="R8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="55"/>
       <c r="I9" s="9"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="58" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="59"/>
-      <c r="I10" s="65" t="s">
+      <c r="B10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="55"/>
+      <c r="I10" s="60" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2"/>
@@ -3243,21 +3227,21 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="59"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="55"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="2"/>
@@ -3271,22 +3255,22 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="55"/>
       <c r="I12" s="9"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="60" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="22"/>
@@ -3299,23 +3283,23 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="59"/>
+      <c r="B13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="55"/>
       <c r="I13" s="9"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="60" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="9"/>
@@ -3327,20 +3311,20 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="59"/>
-      <c r="I14" s="68" t="s">
+      <c r="B14" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="55"/>
+      <c r="I14" s="63" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="2"/>
@@ -3355,21 +3339,21 @@
       <c r="R14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="55"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="63" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="2"/>
@@ -3383,22 +3367,22 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="59"/>
+      <c r="B16" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="55"/>
       <c r="I16" s="9"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="63" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="22"/>
@@ -3411,23 +3395,23 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="55"/>
       <c r="I17" s="9"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="63" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="9"/>
@@ -3439,20 +3423,20 @@
       <c r="R17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="I18" s="70" t="s">
+      <c r="B18" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="I18" s="65" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="2"/>
@@ -3467,20 +3451,20 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="60" t="s">
+      <c r="B19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="2"/>
@@ -3490,26 +3474,26 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="53" t="s">
+      <c r="R19" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="71" t="s">
+      <c r="B20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2"/>
@@ -3518,27 +3502,27 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="53" t="s">
+      <c r="R20" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="71" t="s">
+      <c r="B21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="22"/>
@@ -3546,41 +3530,41 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="53"/>
+      <c r="R21" s="51"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="71" t="s">
+      <c r="B22" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="58" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="53" t="s">
+      <c r="R22" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="30"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
@@ -3622,7 +3606,7 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.14"/>
@@ -3662,7 +3646,7 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="54" t="n">
+      <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
       </c>
@@ -3702,303 +3686,303 @@
       <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="H5" s="57"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="H5" s="53"/>
       <c r="J5" s="23"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="R5" s="45" t="s">
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="R5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="59"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="46" t="s">
+      <c r="H6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="59"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="59"/>
-      <c r="R7" s="47" t="s">
+      <c r="H7" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="55"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="55"/>
+      <c r="R7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="59"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="59"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="59"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="75"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="59"/>
+      <c r="B10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="55"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="59"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="59"/>
+      <c r="H10" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="55"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="59"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="55"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="59"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="59"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="59"/>
+      <c r="B12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="55"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="59"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="75"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="59"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="59"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="59"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="59"/>
+      <c r="B14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="80"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="59"/>
+      <c r="B15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="75"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="30"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="30"/>
       <c r="L16" s="27"/>
       <c r="M16" s="28"/>
@@ -4029,8 +4013,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4060,7 +4044,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4072,144 +4056,147 @@
       <c r="E3" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41" t="s">
-        <v>97</v>
+      <c r="B4" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="41" t="s">
-        <v>99</v>
+      <c r="B5" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="41" t="s">
-        <v>102</v>
+      <c r="B6" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="41" t="s">
-        <v>104</v>
+      <c r="B7" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="41" t="s">
-        <v>105</v>
+      <c r="B8" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="41" t="s">
-        <v>108</v>
+      <c r="B9" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="41" t="s">
-        <v>110</v>
+      <c r="B10" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="41" t="s">
-        <v>111</v>
+      <c r="B11" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>112</v>
+      <c r="D11" s="80" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="41" t="s">
-        <v>113</v>
+      <c r="B12" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>114</v>
+      <c r="D12" s="80" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="41" t="s">
-        <v>115</v>
+      <c r="B13" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="41" t="s">
-        <v>116</v>
+      <c r="B14" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="119">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">student19example@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Used by Invite to invite badgeclassadmin</t>
+    <t xml:space="preserve">Used by Institution admin to invite badgeclassadmin</t>
   </si>
   <si>
     <t xml:space="preserve">Circulation and Breathing</t>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t xml:space="preserve">Read by Teacher → BadgeInteraction → SeeBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used by badgeclass admin to invite badgeclass admin</t>
   </si>
   <si>
     <t xml:space="preserve">Regulation and Integration</t>
@@ -4013,8 +4016,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4185,10 +4188,13 @@
       <c r="D12" s="80" t="s">
         <v>115</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -4196,7 +4202,7 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="119">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">student19example@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Used by Invite to invite badgeclassadmin</t>
+    <t xml:space="preserve">Used by Institution admin to invite badgeclassadmin</t>
   </si>
   <si>
     <t xml:space="preserve">Circulation and Breathing</t>
@@ -340,12 +340,12 @@
     <t xml:space="preserve">Cognitive Psychology</t>
   </si>
   <si>
+    <t xml:space="preserve">Psychometrics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reward by Teacher → StudentInteraction → AwardBadge</t>
   </si>
   <si>
-    <t xml:space="preserve">Psychometrics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Group Dynamics</t>
   </si>
   <si>
@@ -373,7 +373,10 @@
     <t xml:space="preserve">Growth and Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Read by Teacher → BadgeInteraction → SeeBadge</t>
+    <t xml:space="preserve">Rewarded by BadgeAdmin → AwardBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read by BadgeAdmin → SeeBadge. Used by badgeclass admin to invite badgeclass admin</t>
   </si>
   <si>
     <t xml:space="preserve">Regulation and Integration</t>
@@ -619,7 +622,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,6 +941,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4013,8 +4020,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4098,22 +4105,17 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>96</v>
@@ -4171,7 +4173,7 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="81" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4182,13 +4184,16 @@
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="20" t="s">
         <v>115</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -4196,7 +4201,7 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -4238,11 +4243,10 @@
     <hyperlink ref="E3" r:id="rId1" display="student19example@gmail.com"/>
     <hyperlink ref="E4" r:id="rId2" display="student19example@gmail.com"/>
     <hyperlink ref="E5" r:id="rId3" display="student19example@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId4" display="student19example@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId5" display="student19example@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId6" display="student19example@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId7" display="student19example@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId8" display="student19example@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId4" display="student19example@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId5" display="student19example@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId6" display="student19example@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId7" display="student19example@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="122">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -340,6 +340,9 @@
     <t xml:space="preserve">Cognitive Psychology</t>
   </si>
   <si>
+    <t xml:space="preserve">Denied by Badgeadmin → DenyBadge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psychometrics</t>
   </si>
   <si>
@@ -383,6 +386,12 @@
   </si>
   <si>
     <t xml:space="preserve">Digestion and Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests without dedicated badge:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → request badge</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -941,10 +950,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4020,8 +4025,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4105,17 +4110,19 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>96</v>
@@ -4123,30 +4130,30 @@
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>96</v>
@@ -4154,13 +4161,13 @@
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>96</v>
@@ -4168,43 +4175,59 @@
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="81" t="s">
-        <v>113</v>
+      <c r="D11" s="80" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,6 +15,7 @@
     <sheet name="Gebruikers rollen" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="Entiteiten beheer" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Badge distribution" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Test distribution" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="136">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -392,6 +393,48 @@
   </si>
   <si>
     <t xml:space="preserve">Student → request badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuergroup admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuer admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badgeclass admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test possibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuergroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test impossibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badgeclass</t>
   </si>
 </sst>
 </file>
@@ -499,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -605,6 +648,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -631,7 +681,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,6 +694,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,10 +735,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,6 +806,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -768,7 +822,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,22 +842,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -953,6 +1003,78 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1186,7 +1308,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:S35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -1208,87 +1330,111 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.57"/>
   </cols>
   <sheetData>
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="n">
         <f aca="false">COUNTA(B5:B35)</f>
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="0"/>
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1312,6 +1458,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="15"/>
       <c r="N5" s="19"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1319,34 +1466,27 @@
       <c r="R5" s="15"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
       <c r="N6" s="23"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="10"/>
       <c r="R6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1359,26 +1499,26 @@
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="23"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1402,7 +1542,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1410,34 +1550,28 @@
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
       <c r="N9" s="23"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="10"/>
       <c r="R9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1450,27 +1584,27 @@
       <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="L10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="23"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1494,7 +1628,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1502,34 +1636,27 @@
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
       <c r="N12" s="23"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="10"/>
       <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1542,26 +1669,26 @@
       <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="H13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="23"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1585,7 +1712,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="24"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="14" t="s">
         <v>23</v>
       </c>
@@ -1600,20 +1727,20 @@
       <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="23"/>
-      <c r="P15" s="9"/>
+      <c r="P15" s="10"/>
       <c r="R15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1626,27 +1753,27 @@
       <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
       <c r="L16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="23"/>
-      <c r="P16" s="9"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1670,7 +1797,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1685,21 +1812,21 @@
       <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N18" s="23"/>
-      <c r="P18" s="9"/>
+      <c r="P18" s="10"/>
       <c r="R18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1712,21 +1839,21 @@
       <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="22"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="23"/>
-      <c r="P19" s="9"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1757,7 +1884,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1772,20 +1899,20 @@
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="H21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="23"/>
-      <c r="P21" s="9"/>
+      <c r="P21" s="10"/>
       <c r="R21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1798,27 +1925,27 @@
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="H22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="L22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="23"/>
-      <c r="P22" s="9"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1842,7 +1969,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="24"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1857,20 +1984,20 @@
       <c r="B24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="22"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="23"/>
-      <c r="P24" s="9"/>
+      <c r="P24" s="10"/>
       <c r="R24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1883,21 +2010,21 @@
       <c r="B25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="E25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="26"/>
       <c r="L25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="23"/>
-      <c r="P25" s="9"/>
+      <c r="P25" s="10"/>
       <c r="R25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1910,26 +2037,26 @@
       <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="22"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="N26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -1953,7 +2080,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="12"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="14" t="s">
         <v>23</v>
       </c>
@@ -1968,21 +2095,21 @@
       <c r="B28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="E28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="22"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="23"/>
-      <c r="P28" s="9"/>
+      <c r="P28" s="10"/>
       <c r="R28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1995,20 +2122,20 @@
       <c r="B29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="22"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="10"/>
       <c r="N29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="10"/>
       <c r="R29" s="2" t="s">
         <v>23</v>
       </c>
@@ -2021,29 +2148,29 @@
       <c r="B30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="26"/>
       <c r="L30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="23"/>
-      <c r="P30" s="9"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -2067,7 +2194,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="24"/>
-      <c r="O31" s="12"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="14" t="s">
         <v>23</v>
       </c>
@@ -2082,20 +2209,20 @@
       <c r="B32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="H32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="23"/>
-      <c r="P32" s="9"/>
+      <c r="P32" s="10"/>
       <c r="R32" s="2" t="s">
         <v>23</v>
       </c>
@@ -2108,19 +2235,19 @@
       <c r="B33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="10"/>
       <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="H33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="N33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P33" s="9"/>
+      <c r="P33" s="10"/>
       <c r="R33" s="2" t="s">
         <v>23</v>
       </c>
@@ -2133,20 +2260,20 @@
       <c r="B34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="E34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="H34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="L34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="23"/>
-      <c r="P34" s="9"/>
+      <c r="P34" s="10"/>
       <c r="Q34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2194,10 +2321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S43" activeCellId="0" sqref="S43"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2216,26 +2343,44 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
+    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2245,62 +2390,62 @@
         <f aca="false">COUNTA(B5:B21)</f>
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="J5" s="22"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2315,7 +2460,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
@@ -2324,27 +2469,23 @@
       <c r="O6" s="15"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
       <c r="J7" s="22"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2352,11 +2493,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2371,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2380,30 +2521,31 @@
       <c r="O8" s="15"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39" t="s">
+      <c r="B9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2411,10 +2553,10 @@
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2568,8 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2436,10 +2578,10 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9"/>
+      <c r="B11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="26" t="s">
         <v>23</v>
       </c>
@@ -2451,8 +2593,8 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="26" t="s">
         <v>23</v>
       </c>
@@ -2464,10 +2606,10 @@
       <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="26" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2621,8 @@
         <v>23</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="26" t="s">
         <v>23</v>
       </c>
@@ -2489,30 +2631,30 @@
       <c r="P12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="39" t="s">
+      <c r="B13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2520,10 +2662,10 @@
       <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="26"/>
       <c r="E14" s="22" t="s">
         <v>23</v>
@@ -2535,8 +2677,8 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="26" t="s">
         <v>23</v>
       </c>
@@ -2545,10 +2687,10 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="B15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="26"/>
       <c r="E15" s="22" t="s">
         <v>23</v>
@@ -2560,8 +2702,8 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="26" t="s">
         <v>23</v>
       </c>
@@ -2573,10 +2715,10 @@
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="B16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="26"/>
       <c r="E16" s="22" t="s">
         <v>23</v>
@@ -2588,8 +2730,8 @@
         <v>23</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="26" t="s">
         <v>23</v>
       </c>
@@ -2598,30 +2740,30 @@
       <c r="P16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39" t="s">
+      <c r="B17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2684,13 +2826,13 @@
       <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2703,28 +2845,28 @@
         <f aca="false">COUNTA(C5:C17)</f>
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="33"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="34"/>
       <c r="J4" s="41" t="s">
         <v>41</v>
       </c>
@@ -2739,7 +2881,7 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2"/>
@@ -2760,7 +2902,7 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -2781,7 +2923,7 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2"/>
@@ -2802,7 +2944,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -2820,7 +2962,7 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2835,7 +2977,7 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>23</v>
@@ -2850,7 +2992,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -2865,7 +3007,7 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>23</v>
@@ -2883,7 +3025,7 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>23</v>
@@ -2901,7 +3043,7 @@
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2"/>
@@ -2919,7 +3061,7 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2"/>
       <c r="F15" s="49" t="s">
         <v>23</v>
@@ -2937,7 +3079,7 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3001,76 +3143,76 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="I3" s="52" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="T4" s="41" t="s">
@@ -3082,11 +3224,11 @@
       <c r="G5" s="23"/>
       <c r="I5" s="53"/>
       <c r="L5" s="23"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="33"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="34"/>
       <c r="T5" s="43" t="s">
         <v>44</v>
       </c>
@@ -3095,7 +3237,7 @@
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -3111,7 +3253,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="22"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -3126,7 +3268,7 @@
       <c r="A7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -3136,13 +3278,13 @@
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="55"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="22"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -3157,7 +3299,7 @@
       <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -3167,13 +3309,13 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="55"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="2"/>
       <c r="K8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="22"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -3186,7 +3328,7 @@
       <c r="A9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -3196,13 +3338,13 @@
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="55"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3230,7 +3372,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="22"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
         <v>23</v>
@@ -3252,13 +3394,13 @@
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="55"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="22"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
         <v>23</v>
@@ -3280,13 +3422,13 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="55"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="2"/>
       <c r="K12" s="60" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="22"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
         <v>23</v>
@@ -3308,13 +3450,13 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="55"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
         <v>23</v>
@@ -3342,7 +3484,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="22"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
         <v>23</v>
@@ -3364,13 +3506,13 @@
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="55"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="63" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="22"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
         <v>23</v>
@@ -3392,13 +3534,13 @@
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="55"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="2"/>
       <c r="K16" s="63" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="22"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
         <v>23</v>
@@ -3420,13 +3562,13 @@
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="55"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
         <v>23</v>
@@ -3454,7 +3596,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
         <v>23</v>
@@ -3466,7 +3608,7 @@
       <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="59"/>
@@ -3482,7 +3624,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="22"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -3494,7 +3636,7 @@
       <c r="A20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="59"/>
@@ -3504,13 +3646,13 @@
       <c r="G20" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="22"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -3522,7 +3664,7 @@
       <c r="A21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="59"/>
@@ -3532,13 +3674,13 @@
       <c r="G21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="2"/>
       <c r="K21" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="22"/>
-      <c r="N21" s="9"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -3548,7 +3690,7 @@
       <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="59"/>
@@ -3558,13 +3700,13 @@
       <c r="G22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3638,64 +3780,64 @@
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R4" s="41" t="s">
@@ -3722,7 +3864,7 @@
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -4025,8 +4167,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4209,7 +4351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
         <v>119</v>
       </c>
@@ -4279,4 +4421,170 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="88"/>
+      <c r="I3" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="88"/>
+      <c r="I4" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="88"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="88"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="F7" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="93"/>
+      <c r="F8" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Gebruikers rollen" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="Entiteiten beheer" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Badge distribution" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Test distribution" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="136">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -340,12 +341,15 @@
     <t xml:space="preserve">Cognitive Psychology</t>
   </si>
   <si>
+    <t xml:space="preserve">Denied by Badgeadmin → DenyBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychometrics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reward by Teacher → StudentInteraction → AwardBadge</t>
   </si>
   <si>
-    <t xml:space="preserve">Psychometrics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Group Dynamics</t>
   </si>
   <si>
@@ -373,16 +377,64 @@
     <t xml:space="preserve">Growth and Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Read by Teacher → BadgeInteraction → SeeBadge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used by badgeclass admin to invite badgeclass admin</t>
+    <t xml:space="preserve">Rewarded by BadgeAdmin → AwardBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read by BadgeAdmin → SeeBadge. Used by badgeclass admin to invite badgeclass admin. Used by Badgeclass admin to try to create a badge.</t>
   </si>
   <si>
     <t xml:space="preserve">Regulation and Integration</t>
   </si>
   <si>
     <t xml:space="preserve">Digestion and Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests without dedicated badge:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → request badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuergroup admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuer admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badgeclass admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test possibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuergroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test impossibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badgeclass</t>
   </si>
 </sst>
 </file>
@@ -398,7 +450,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -490,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -596,6 +647,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -622,7 +680,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,6 +693,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,10 +734,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,6 +805,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,7 +821,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,22 +841,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,6 +1002,50 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1177,10 +1279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:S35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,87 +1301,111 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.57"/>
   </cols>
   <sheetData>
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="n">
         <f aca="false">COUNTA(B5:B35)</f>
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1303,6 +1429,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="15"/>
       <c r="N5" s="19"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1310,34 +1437,27 @@
       <c r="R5" s="15"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
       <c r="N6" s="23"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="10"/>
       <c r="R6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1350,26 +1470,26 @@
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="23"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1393,7 +1513,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1401,34 +1521,28 @@
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
       <c r="N9" s="23"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="10"/>
       <c r="R9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1441,27 +1555,27 @@
       <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="L10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="23"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1485,7 +1599,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1493,34 +1607,27 @@
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
       <c r="N12" s="23"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="10"/>
       <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1533,26 +1640,26 @@
       <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="H13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="23"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1576,7 +1683,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="24"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="14" t="s">
         <v>23</v>
       </c>
@@ -1591,20 +1698,20 @@
       <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="23"/>
-      <c r="P15" s="9"/>
+      <c r="P15" s="10"/>
       <c r="R15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1617,27 +1724,27 @@
       <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
       <c r="L16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="23"/>
-      <c r="P16" s="9"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1661,7 +1768,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1676,21 +1783,21 @@
       <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N18" s="23"/>
-      <c r="P18" s="9"/>
+      <c r="P18" s="10"/>
       <c r="R18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1703,21 +1810,21 @@
       <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="22"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="23"/>
-      <c r="P19" s="9"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1748,7 +1855,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1763,20 +1870,20 @@
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="H21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="23"/>
-      <c r="P21" s="9"/>
+      <c r="P21" s="10"/>
       <c r="R21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1789,27 +1896,27 @@
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="H22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="L22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="23"/>
-      <c r="P22" s="9"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1833,7 +1940,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="24"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1848,20 +1955,20 @@
       <c r="B24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="22"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="23"/>
-      <c r="P24" s="9"/>
+      <c r="P24" s="10"/>
       <c r="R24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1874,21 +1981,21 @@
       <c r="B25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="E25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="26"/>
       <c r="L25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="23"/>
-      <c r="P25" s="9"/>
+      <c r="P25" s="10"/>
       <c r="R25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1901,26 +2008,26 @@
       <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="22"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="N26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -1944,7 +2051,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="12"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="14" t="s">
         <v>23</v>
       </c>
@@ -1959,21 +2066,21 @@
       <c r="B28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="E28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="22"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="23"/>
-      <c r="P28" s="9"/>
+      <c r="P28" s="10"/>
       <c r="R28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1986,20 +2093,20 @@
       <c r="B29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="22"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="10"/>
       <c r="N29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="10"/>
       <c r="R29" s="2" t="s">
         <v>23</v>
       </c>
@@ -2012,29 +2119,29 @@
       <c r="B30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="26"/>
       <c r="L30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="23"/>
-      <c r="P30" s="9"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -2058,7 +2165,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="24"/>
-      <c r="O31" s="12"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="14" t="s">
         <v>23</v>
       </c>
@@ -2073,20 +2180,20 @@
       <c r="B32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="H32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="23"/>
-      <c r="P32" s="9"/>
+      <c r="P32" s="10"/>
       <c r="R32" s="2" t="s">
         <v>23</v>
       </c>
@@ -2099,19 +2206,19 @@
       <c r="B33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="10"/>
       <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="H33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="N33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P33" s="9"/>
+      <c r="P33" s="10"/>
       <c r="R33" s="2" t="s">
         <v>23</v>
       </c>
@@ -2124,20 +2231,20 @@
       <c r="B34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="E34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="H34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="L34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="23"/>
-      <c r="P34" s="9"/>
+      <c r="P34" s="10"/>
       <c r="Q34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2185,10 +2292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S43" activeCellId="0" sqref="S43"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2207,26 +2314,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
+    <row r="1" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2236,62 +2362,62 @@
         <f aca="false">COUNTA(B5:B21)</f>
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="J5" s="22"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2306,7 +2432,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
@@ -2315,27 +2441,23 @@
       <c r="O6" s="15"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
       <c r="J7" s="22"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2343,11 +2465,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2362,7 +2484,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2371,41 +2493,42 @@
       <c r="O8" s="15"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2417,8 +2540,8 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2426,11 +2549,11 @@
       <c r="O10" s="26"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="26" t="s">
         <v>23</v>
       </c>
@@ -2442,8 +2565,8 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="26" t="s">
         <v>23</v>
       </c>
@@ -2451,14 +2574,14 @@
       <c r="O11" s="26"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="26" t="s">
         <v>23</v>
       </c>
@@ -2470,8 +2593,8 @@
         <v>23</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="26" t="s">
         <v>23</v>
       </c>
@@ -2479,42 +2602,42 @@
       <c r="O12" s="26"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="26"/>
       <c r="E14" s="22" t="s">
         <v>23</v>
@@ -2526,8 +2649,8 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="26" t="s">
         <v>23</v>
       </c>
@@ -2535,11 +2658,11 @@
       <c r="O14" s="26"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="26"/>
       <c r="E15" s="22" t="s">
         <v>23</v>
@@ -2551,8 +2674,8 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="26" t="s">
         <v>23</v>
       </c>
@@ -2560,14 +2683,14 @@
       <c r="O15" s="26"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="B16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="26"/>
       <c r="E16" s="22" t="s">
         <v>23</v>
@@ -2579,8 +2702,8 @@
         <v>23</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="26" t="s">
         <v>23</v>
       </c>
@@ -2588,35 +2711,35 @@
       <c r="O16" s="26"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2652,10 +2775,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2671,19 +2794,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2694,33 +2818,33 @@
         <f aca="false">COUNTA(C5:C17)</f>
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="33"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="34"/>
       <c r="J4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
         <v>42</v>
       </c>
@@ -2730,7 +2854,7 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2"/>
@@ -2741,7 +2865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -2751,7 +2875,7 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -2762,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
@@ -2772,7 +2896,7 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2"/>
@@ -2783,7 +2907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -2793,7 +2917,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -2801,7 +2925,7 @@
       </c>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2811,7 +2935,7 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2819,14 +2943,14 @@
       <c r="G9" s="2"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>23</v>
@@ -2834,14 +2958,14 @@
       <c r="G10" s="2"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -2849,14 +2973,14 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>23</v>
@@ -2874,7 +2998,7 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>23</v>
@@ -2892,7 +3016,7 @@
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2"/>
@@ -2910,7 +3034,7 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2"/>
       <c r="F15" s="49" t="s">
         <v>23</v>
@@ -2918,7 +3042,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
         <v>37</v>
       </c>
@@ -2928,7 +3052,7 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2936,14 +3060,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
@@ -2967,10 +3094,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:T23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="T30" activeCellId="0" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2991,102 +3118,104 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="I3" s="52" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="T4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="53"/>
       <c r="G5" s="23"/>
       <c r="I5" s="53"/>
       <c r="L5" s="23"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="33"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="34"/>
       <c r="T5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -3102,7 +3231,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="22"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -3113,11 +3242,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -3127,13 +3256,13 @@
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="55"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="22"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -3144,11 +3273,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -3158,13 +3287,13 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="55"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="2"/>
       <c r="K8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="22"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -3173,11 +3302,11 @@
       </c>
       <c r="T8" s="45"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -3187,13 +3316,13 @@
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="55"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3221,7 +3350,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="22"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
         <v>23</v>
@@ -3243,13 +3372,13 @@
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="55"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="22"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
         <v>23</v>
@@ -3271,13 +3400,13 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="55"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="2"/>
       <c r="K12" s="60" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="22"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
         <v>23</v>
@@ -3299,13 +3428,13 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="55"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
         <v>23</v>
@@ -3313,7 +3442,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
         <v>79</v>
       </c>
@@ -3333,7 +3462,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="22"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
         <v>23</v>
@@ -3341,7 +3470,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
         <v>79</v>
       </c>
@@ -3355,13 +3484,13 @@
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="55"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="63" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="22"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
         <v>23</v>
@@ -3369,7 +3498,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
         <v>80</v>
       </c>
@@ -3383,13 +3512,13 @@
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="55"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="2"/>
       <c r="K16" s="63" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="22"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
         <v>23</v>
@@ -3397,7 +3526,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
         <v>81</v>
       </c>
@@ -3411,13 +3540,13 @@
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="55"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
         <v>23</v>
@@ -3425,7 +3554,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
         <v>82</v>
       </c>
@@ -3445,7 +3574,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="22"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
         <v>23</v>
@@ -3453,11 +3582,11 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="59"/>
@@ -3473,7 +3602,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="22"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -3481,11 +3610,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="59"/>
@@ -3495,13 +3624,13 @@
       <c r="G20" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="22"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -3509,11 +3638,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="59"/>
@@ -3523,23 +3652,23 @@
       <c r="G21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="2"/>
       <c r="K21" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="22"/>
-      <c r="N21" s="9"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="51"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="59"/>
@@ -3549,13 +3678,13 @@
       <c r="G22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3563,7 +3692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="67"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -3600,7 +3729,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
@@ -3625,75 +3754,77 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="R4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
@@ -3709,11 +3840,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -3904,7 +4035,7 @@
       <c r="O12" s="49"/>
       <c r="P12" s="55"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3979,7 +4110,7 @@
       </c>
       <c r="P15" s="55"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="67"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -4017,7 +4148,7 @@
   <dimension ref="B2:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4076,6 +4207,7 @@
       <c r="E4" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="40" t="s">
@@ -4104,9 +4236,6 @@
       <c r="D6" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
@@ -4116,7 +4245,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>96</v>
@@ -4124,30 +4253,30 @@
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>96</v>
@@ -4155,13 +4284,13 @@
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>96</v>
@@ -4169,43 +4298,59 @@
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="20" t="s">
         <v>116</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D13" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4244,11 +4389,10 @@
     <hyperlink ref="E3" r:id="rId1" display="student19example@gmail.com"/>
     <hyperlink ref="E4" r:id="rId2" display="student19example@gmail.com"/>
     <hyperlink ref="E5" r:id="rId3" display="student19example@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId4" display="student19example@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId5" display="student19example@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId6" display="student19example@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId7" display="student19example@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId8" display="student19example@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId4" display="student19example@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId5" display="student19example@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId6" display="student19example@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId7" display="student19example@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4258,4 +4402,170 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="I3" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="I4" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="F7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="53"/>
+      <c r="F8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="120">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t xml:space="preserve">Digestion and Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra badge needed for partial E2E test</t>
   </si>
 </sst>
 </file>
@@ -4017,7 +4020,7 @@
   <dimension ref="B2:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4206,6 +4209,11 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -450,7 +450,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -681,7 +680,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -806,22 +805,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,75 +1009,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,8 +1272,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1344,8 +1319,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -1419,7 +1394,7 @@
       <c r="N4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="0"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2323,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2343,25 +2318,26 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
@@ -2430,7 +2406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
       <c r="D5" s="32"/>
       <c r="E5" s="34"/>
@@ -2441,7 +2417,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2469,7 +2445,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -2493,7 +2469,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2521,39 +2497,39 @@
       <c r="O8" s="15"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="10"/>
@@ -2568,7 +2544,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="10"/>
       <c r="M10" s="26" t="s">
         <v>23</v>
@@ -2577,8 +2553,8 @@
       <c r="O10" s="26"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="10"/>
@@ -2593,7 +2569,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="10"/>
       <c r="M11" s="26" t="s">
         <v>23</v>
@@ -2602,11 +2578,11 @@
       <c r="O11" s="26"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10"/>
@@ -2621,7 +2597,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="10"/>
       <c r="M12" s="26" t="s">
         <v>23</v>
@@ -2630,39 +2606,39 @@
       <c r="O12" s="26"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10"/>
@@ -2677,7 +2653,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="10"/>
       <c r="M14" s="26" t="s">
         <v>23</v>
@@ -2686,8 +2662,8 @@
       <c r="O14" s="26"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="39" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="10"/>
@@ -2702,7 +2678,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="10"/>
       <c r="M15" s="26" t="s">
         <v>23</v>
@@ -2711,11 +2687,11 @@
       <c r="O15" s="26"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="10"/>
@@ -2730,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="39"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="10"/>
       <c r="M16" s="26" t="s">
         <v>23</v>
@@ -2739,35 +2715,35 @@
       <c r="O16" s="26"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2803,10 +2779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2822,8 +2798,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2834,7 +2811,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2861,21 +2838,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="34"/>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2888,15 +2865,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="22"/>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2909,15 +2886,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="22"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2930,15 +2907,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="22"/>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2952,11 +2929,11 @@
       </c>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2970,8 +2947,8 @@
       <c r="G9" s="2"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="43" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2985,8 +2962,8 @@
       <c r="G10" s="2"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="43" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="44" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3000,8 +2977,8 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="43" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="44" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3016,10 +2993,10 @@
       <c r="H12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3034,10 +3011,10 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3052,10 +3029,10 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3063,17 +3040,17 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="50" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3083,18 +3060,21 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
@@ -3118,7 +3098,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:T23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
@@ -3142,11 +3122,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>66</v>
       </c>
@@ -3154,12 +3136,12 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +3150,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
@@ -3215,39 +3197,39 @@
       <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="53"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="54"/>
       <c r="G5" s="23"/>
-      <c r="I5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="L5" s="23"/>
       <c r="N5" s="4"/>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="34"/>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="55"/>
-      <c r="I6" s="56" t="s">
+      <c r="B6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="56"/>
+      <c r="I6" s="57" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2"/>
@@ -3257,29 +3239,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="44" t="s">
+      <c r="R6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="55"/>
+      <c r="B7" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="56"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="58" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="2"/>
@@ -3288,30 +3270,30 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="45" t="s">
+      <c r="R7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="56"/>
       <c r="I8" s="10"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="58" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="22"/>
@@ -3319,54 +3301,54 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="R8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="46"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="56"/>
       <c r="I9" s="10"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="59" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="52" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="55"/>
-      <c r="I10" s="60" t="s">
+      <c r="B10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="56"/>
+      <c r="I10" s="61" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2"/>
@@ -3381,21 +3363,21 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="56"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="61" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="2"/>
@@ -3409,22 +3391,22 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="56"/>
       <c r="I12" s="10"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="61" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="22"/>
@@ -3437,23 +3419,23 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="55"/>
+      <c r="B13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="56"/>
       <c r="I13" s="10"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="61" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="10"/>
@@ -3464,21 +3446,21 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="55"/>
-      <c r="I14" s="63" t="s">
+      <c r="B14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="56"/>
+      <c r="I14" s="64" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="2"/>
@@ -3492,22 +3474,22 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="55"/>
+      <c r="B15" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="56"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="64" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="2"/>
@@ -3520,23 +3502,23 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="55"/>
+      <c r="B16" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="56"/>
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="64" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="22"/>
@@ -3548,24 +3530,24 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="56"/>
       <c r="I17" s="10"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="64" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="10"/>
@@ -3576,21 +3558,21 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="55"/>
-      <c r="I18" s="65" t="s">
+      <c r="B18" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="I18" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="2"/>
@@ -3604,21 +3586,21 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="56" t="s">
+      <c r="B19" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="57" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="2"/>
@@ -3628,26 +3610,26 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
+      <c r="R19" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="66" t="s">
+      <c r="B20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="58" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2"/>
@@ -3656,27 +3638,27 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="s">
+      <c r="R20" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="66" t="s">
+      <c r="B21" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="58" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="22"/>
@@ -3684,41 +3666,41 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="51"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="s">
+      <c r="R21" s="52"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="66" t="s">
+      <c r="B22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="58" t="s">
+      <c r="L22" s="59" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="R22" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="30"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
@@ -3751,7 +3733,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
@@ -3776,7 +3758,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -3799,7 +3783,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
@@ -3840,303 +3824,303 @@
       <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="H5" s="53"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="H5" s="54"/>
       <c r="J5" s="23"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="R5" s="43" t="s">
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="75"/>
+      <c r="R5" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="55"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="44" t="s">
+      <c r="H6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="56"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="55"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="55"/>
-      <c r="R7" s="45" t="s">
+      <c r="H7" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="56"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="50"/>
+      <c r="P7" s="56"/>
+      <c r="R7" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="55"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="50"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="55"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="76"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="55"/>
+      <c r="B10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="56"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="55"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="55"/>
+      <c r="H10" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="56"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" s="56"/>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="55"/>
+      <c r="B11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="56"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="55"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="55"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="56"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="55"/>
+      <c r="B12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="56"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="55"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="76"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="50"/>
+      <c r="P12" s="56"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="55"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="55"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="50"/>
+      <c r="J13" s="56"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="55"/>
+      <c r="B14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="56"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="55"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="B15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="76"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="30"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="30"/>
       <c r="L16" s="27"/>
       <c r="M16" s="28"/>
@@ -4167,7 +4151,7 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -4198,7 +4182,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4215,7 +4199,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4229,7 +4213,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4246,7 +4230,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4257,7 +4241,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4271,7 +4255,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4288,7 +4272,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4302,7 +4286,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4316,18 +4300,18 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="81" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4341,7 +4325,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4352,7 +4336,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4417,8 +4401,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4430,151 +4414,151 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="85" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="I3" s="89" t="s">
+      <c r="G3" s="23"/>
+      <c r="I3" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="I4" s="91" t="s">
+      <c r="G4" s="23"/>
+      <c r="I4" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="89" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="86" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="85"/>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="F7" s="86" t="s">
+      <c r="D7" s="54"/>
+      <c r="F7" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="90" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="93"/>
-      <c r="F8" s="86" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="54"/>
+      <c r="F8" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="90" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="95"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="92" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4583,8 +4567,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="137">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">Badge valideren - invalide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadgeclassAdmin → Revoke badge</t>
   </si>
   <si>
     <t xml:space="preserve">Badge intrekken - MBO</t>
@@ -450,6 +453,7 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -680,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,10 +806,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1239,7 +1239,7 @@
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="A12 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A12 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2298,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U20" activeCellId="1" sqref="A12 U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,26 +2318,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
@@ -2372,7 +2365,7 @@
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2387,7 +2380,7 @@
       <c r="I4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -2406,18 +2399,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
       <c r="J5" s="22"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2445,7 +2438,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -2469,7 +2462,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2497,39 +2490,39 @@
       <c r="O8" s="15"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="10"/>
@@ -2544,7 +2537,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="40"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="10"/>
       <c r="M10" s="26" t="s">
         <v>23</v>
@@ -2553,8 +2546,8 @@
       <c r="O10" s="26"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="10"/>
@@ -2569,7 +2562,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="10"/>
       <c r="M11" s="26" t="s">
         <v>23</v>
@@ -2578,11 +2571,11 @@
       <c r="O11" s="26"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10"/>
@@ -2597,7 +2590,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="10"/>
       <c r="M12" s="26" t="s">
         <v>23</v>
@@ -2606,39 +2599,39 @@
       <c r="O12" s="26"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10"/>
@@ -2653,7 +2646,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="10"/>
       <c r="M14" s="26" t="s">
         <v>23</v>
@@ -2662,8 +2655,8 @@
       <c r="O14" s="26"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="40" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="10"/>
@@ -2678,7 +2671,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="40"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="10"/>
       <c r="M15" s="26" t="s">
         <v>23</v>
@@ -2687,11 +2680,11 @@
       <c r="O15" s="26"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="10"/>
@@ -2706,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="40"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="10"/>
       <c r="M16" s="26" t="s">
         <v>23</v>
@@ -2715,35 +2708,35 @@
       <c r="O16" s="26"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2779,10 +2772,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2798,9 +2791,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2811,7 +2803,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2838,21 +2830,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="34"/>
-      <c r="J4" s="42" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2865,15 +2857,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="22"/>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2886,15 +2878,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="22"/>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2907,15 +2899,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="22"/>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2929,11 +2921,11 @@
       </c>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2947,8 +2939,8 @@
       <c r="G9" s="2"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="44" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2962,9 +2954,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="44" t="s">
+    <row r="11" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="46" t="s">
         <v>55</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2977,9 +2972,12 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="44" t="s">
-        <v>56</v>
+    <row r="12" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2993,11 +2991,11 @@
       <c r="H12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>58</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -3011,11 +3009,11 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>60</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -3029,29 +3027,29 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="46" t="s">
         <v>62</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>63</v>
+      <c r="B16" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -3060,23 +3058,20 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3098,10 +3093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="A12 D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3122,26 +3117,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="40"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="I3" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3150,28 +3143,28 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -3180,7 +3173,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>18</v>
@@ -3197,39 +3190,39 @@
       <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="T4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="54"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="53"/>
       <c r="G5" s="23"/>
-      <c r="I5" s="54"/>
+      <c r="I5" s="53"/>
       <c r="L5" s="23"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="34"/>
-      <c r="T5" s="44" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="33"/>
+      <c r="T5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="56"/>
-      <c r="I6" s="57" t="s">
+      <c r="B6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="56" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2"/>
@@ -3239,29 +3232,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="45" t="s">
+      <c r="R6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="56"/>
+      <c r="B7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="55"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="2"/>
@@ -3270,30 +3263,30 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="46" t="s">
+      <c r="R7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="55"/>
       <c r="I8" s="10"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="22"/>
@@ -3301,54 +3294,54 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="46"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="s">
+      <c r="R8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="55"/>
       <c r="I9" s="10"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="58" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="52" t="s">
+      <c r="R9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="56"/>
-      <c r="I10" s="61" t="s">
+      <c r="A10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="55"/>
+      <c r="I10" s="60" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2"/>
@@ -3363,21 +3356,21 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="56"/>
+      <c r="A11" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="55"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="2"/>
@@ -3391,22 +3384,22 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="55"/>
       <c r="I12" s="10"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="60" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="22"/>
@@ -3419,23 +3412,23 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="56"/>
+      <c r="A13" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="55"/>
       <c r="I13" s="10"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="60" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="10"/>
@@ -3446,21 +3439,21 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="56"/>
-      <c r="I14" s="64" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="55"/>
+      <c r="I14" s="63" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="2"/>
@@ -3474,22 +3467,22 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="56"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="55"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="63" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="2"/>
@@ -3502,23 +3495,23 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="56"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="55"/>
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="63" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="22"/>
@@ -3530,24 +3523,24 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="56"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="55"/>
       <c r="I17" s="10"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="64" t="s">
+      <c r="L17" s="63" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="10"/>
@@ -3558,21 +3551,21 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="I18" s="66" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="I18" s="65" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="2"/>
@@ -3586,21 +3579,21 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="57" t="s">
+      <c r="B19" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="2"/>
@@ -3610,26 +3603,26 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51" t="s">
+      <c r="R19" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="67" t="s">
+      <c r="B20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="57" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2"/>
@@ -3638,27 +3631,27 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51" t="s">
+      <c r="R20" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="67" t="s">
+      <c r="B21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="57" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="22"/>
@@ -3666,41 +3659,41 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="52"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="s">
+      <c r="R21" s="51"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="67" t="s">
+      <c r="B22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="58" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
+      <c r="R22" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="30"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
@@ -3733,10 +3726,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A3:R16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A12 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3758,14 +3751,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3783,22 +3774,22 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -3807,7 +3798,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>18</v>
@@ -3824,303 +3815,303 @@
       <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="H5" s="54"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="H5" s="53"/>
       <c r="J5" s="23"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="R5" s="44" t="s">
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="R5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="56"/>
+      <c r="B6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="56"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="45" t="s">
+      <c r="H6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="56"/>
+      <c r="A7" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="56"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="56"/>
-      <c r="R7" s="46" t="s">
+      <c r="H7" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="55"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="55"/>
+      <c r="R7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="56"/>
+      <c r="A8" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="56"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="56"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="56"/>
+      <c r="A9" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="56"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="75"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="55"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="55"/>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="56"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="56"/>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="56"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="55"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="56"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="56"/>
+      <c r="A12" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="55"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="56"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="75"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="75"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="55"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="56"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="56"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="56"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="56"/>
+      <c r="A14" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="56"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="A15" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="75"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="55"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="30"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="30"/>
       <c r="L16" s="27"/>
       <c r="M16" s="28"/>
@@ -4151,8 +4142,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="1" sqref="A12 D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4166,194 +4157,194 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41" t="s">
-        <v>94</v>
+      <c r="B3" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41" t="s">
-        <v>98</v>
+      <c r="B4" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="41" t="s">
-        <v>100</v>
+      <c r="B5" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="41" t="s">
-        <v>103</v>
+      <c r="B6" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="41" t="s">
-        <v>105</v>
+      <c r="B7" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="41" t="s">
-        <v>107</v>
+      <c r="B8" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="41" t="s">
-        <v>110</v>
+      <c r="B9" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="41" t="s">
-        <v>112</v>
+      <c r="B10" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="41" t="s">
-        <v>113</v>
+      <c r="B11" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="81" t="s">
-        <v>114</v>
+      <c r="D11" s="80" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="41" t="s">
-        <v>115</v>
+      <c r="B12" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="41" t="s">
-        <v>118</v>
+      <c r="B13" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="41" t="s">
-        <v>119</v>
+      <c r="B14" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4415,7 +4406,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+      <selection pane="topLeft" activeCell="J47" activeCellId="1" sqref="A12 J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4432,134 +4423,134 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="83" t="s">
         <v>128</v>
       </c>
+      <c r="G2" s="84" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="86"/>
-      <c r="C3" s="86" t="s">
-        <v>125</v>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85" t="s">
+        <v>126</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="81" t="s">
         <v>130</v>
       </c>
+      <c r="E3" s="80" t="s">
+        <v>131</v>
+      </c>
       <c r="G3" s="23"/>
-      <c r="I3" s="87" t="s">
-        <v>129</v>
+      <c r="I3" s="86" t="s">
+        <v>130</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="80" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>130</v>
-      </c>
       <c r="G4" s="23"/>
-      <c r="I4" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>133</v>
+      <c r="I4" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="F7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="53"/>
+      <c r="F8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="91" t="s">
         <v>130</v>
-      </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="86"/>
-      <c r="C7" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="F7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="54"/>
-      <c r="F8" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="92" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="138">
   <si>
     <t xml:space="preserve">Total amount of testcases:</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve">InstitutionAdmin → EntityControl → Issuergroup → Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${role} → Invite</t>
   </si>
   <si>
     <t xml:space="preserve">EntityControl → UserManagement →  WOUser</t>
@@ -453,7 +456,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1239,7 +1241,7 @@
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="A12 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1264,7 +1266,7 @@
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">COUNTA('BadgeClass CRUD'!A5:A34,'Badge Aanvragen'!A5:A18,'Gebruikers rollen'!A4:A23,'Entiteiten beheer'!A4:A16)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1288,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A12 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2299,7 +2301,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U20" activeCellId="1" sqref="A12 U20"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,7 +2320,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2330,7 +2332,8 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
       <c r="D5" s="31"/>
       <c r="E5" s="33"/>
@@ -2410,7 +2413,7 @@
       <c r="O5" s="31"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2438,7 +2441,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -2462,7 +2465,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2490,7 +2493,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
@@ -2546,7 +2549,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="39" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2574,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
@@ -2599,7 +2602,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
         <v>37</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
@@ -2655,7 +2658,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="39" t="s">
         <v>23</v>
       </c>
@@ -2680,7 +2683,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
@@ -2708,7 +2711,7 @@
       <c r="O16" s="26"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
         <v>37</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2772,9 +2775,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2791,6 +2794,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="40" t="s">
         <v>39</v>
@@ -2803,7 +2807,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
@@ -2840,7 +2844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
         <v>42</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -2921,7 +2925,7 @@
       </c>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2939,7 +2943,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="43" t="s">
         <v>54</v>
       </c>
@@ -2954,7 +2958,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
         <v>55</v>
       </c>
@@ -2972,7 +2976,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
         <v>55</v>
       </c>
@@ -3044,7 +3048,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
         <v>37</v>
       </c>
@@ -3062,14 +3066,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
@@ -3093,10 +3100,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:T23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="A12 D34"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3117,7 +3124,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3152,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
@@ -3194,7 +3203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="53"/>
       <c r="G5" s="23"/>
       <c r="I5" s="53"/>
@@ -3208,7 +3217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
         <v>37</v>
       </c>
@@ -3270,7 +3279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
@@ -3299,7 +3308,7 @@
       </c>
       <c r="T8" s="45"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
         <v>37</v>
       </c>
@@ -3439,7 +3448,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
         <v>80</v>
       </c>
@@ -3467,7 +3476,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
         <v>80</v>
       </c>
@@ -3495,7 +3504,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
         <v>81</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
         <v>82</v>
       </c>
@@ -3551,7 +3560,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
         <v>83</v>
       </c>
@@ -3579,7 +3588,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
         <v>37</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
         <v>37</v>
       </c>
@@ -3661,7 +3670,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="51"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="67"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -3726,10 +3735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A12 A13"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3751,7 +3760,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -3774,7 +3785,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
@@ -3819,7 +3830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
@@ -3835,7 +3846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4041,10 @@
       <c r="O12" s="49"/>
       <c r="P12" s="55"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4069,7 @@
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>23</v>
@@ -4081,7 +4095,7 @@
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>23</v>
@@ -4105,7 +4119,7 @@
       </c>
       <c r="P15" s="55"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="67"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -4142,8 +4156,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="1" sqref="A12 D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4157,194 +4171,194 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4406,7 +4420,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="1" sqref="A12 J47"/>
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4423,81 +4437,81 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="85"/>
       <c r="C3" s="85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" s="23"/>
       <c r="I3" s="86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="85"/>
       <c r="D4" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" s="23"/>
       <c r="I4" s="87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="85"/>
       <c r="C5" s="85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" s="23"/>
     </row>
@@ -4508,49 +4522,49 @@
       <c r="C6" s="85"/>
       <c r="D6" s="53"/>
       <c r="E6" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="85"/>
       <c r="C7" s="85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" s="53"/>
       <c r="F7" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="53"/>
       <c r="F8" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="BadgeClass CRUD" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Badge Aanvragen" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Badge acties" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Gebruikers rollen" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Entiteiten beheer" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Badge distribution" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Test distribution" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Badge Aanvragen" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Badge acties" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Gebruikers rollen" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Entiteiten beheer" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Badge distribution" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Test distribution" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="Badgeclass interaction" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Issuer interaction" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Issuergroup interaction" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Institution interaction" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Student interaction" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="Admin rights" sheetId="13" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="138">
-  <si>
-    <t xml:space="preserve">Total amount of testcases:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testcases completed:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="201">
   <si>
     <t xml:space="preserve">Onderwijsinstelling</t>
   </si>
@@ -311,9 +310,6 @@
     <t xml:space="preserve">Receive/request/reward usage in testcase</t>
   </si>
   <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOTES:</t>
   </si>
   <si>
@@ -323,9 +319,6 @@
     <t xml:space="preserve">Receive by Student → Backpack → ReceiveBadge</t>
   </si>
   <si>
-    <t xml:space="preserve">student19example@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Used by Institution admin to invite badgeclassadmin</t>
   </si>
   <si>
@@ -398,7 +391,16 @@
     <t xml:space="preserve">Tests without dedicated badge:</t>
   </si>
   <si>
-    <t xml:space="preserve">Student → request badge</t>
+    <t xml:space="preserve">Amount:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → Requestedbadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentInteraction → RevokeBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student → Backpack → Receivedbadge</t>
   </si>
   <si>
     <t xml:space="preserve">ROLE</t>
@@ -441,6 +443,198 @@
   </si>
   <si>
     <t xml:space="preserve">Badgeclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadgeclassInteraction → Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badgeclassinteraction → Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path to test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test missing asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadgeclassInteraction → Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not tested (yet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadgeclassInteraction → Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadgeclassInteraction → Copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadgeclassInteraction → Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuerInteraction → Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuerInteraction → Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuerInteraction → Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuerInteraction → Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuergroupInteraction → Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuergroupInteraction → Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuergroupInteraction → Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssuergroupInteraction → Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request regular badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BasicsCatalogStudent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request extra curricular bage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request micro credential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpack → RequestedBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct receive badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpack → ReceivedBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject direct badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept direct badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject accepted badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpack → EditBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make badge public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpack → ShareBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have badge revoked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have badge denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deny request with reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentInteraction → DenyBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deny request without reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoke awarded badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award requested badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentInteraction → AwardBadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct award badge using EPPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct award using mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder/Inviter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite badgeclass admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite → Badgeclass admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit badgeclass admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite issuer admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite → IssuerAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit issuer admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite issuergroup admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite → IssuergroupAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit issuergroup admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite institution admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite → InstitutionAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit institution admin</t>
   </si>
 </sst>
 </file>
@@ -450,12 +644,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -472,8 +667,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +747,20 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA7500"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -660,6 +873,55 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -686,7 +948,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="168">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1007,10 +1269,50 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1052,6 +1354,270 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1109,9 +1675,9 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF44B0E2"/>
       <rgbColor rgb="FF8ED973"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFEA7500"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1238,56 +1804,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.45"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">SUM('BadgeClass CRUD'!B3,'Badge Aanvragen'!B4,'Badge acties'!C3,'Gebruikers rollen'!B4,'Entiteiten beheer'!B4)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">COUNTA('BadgeClass CRUD'!A5:A34,'Badge Aanvragen'!A5:A18,'Gebruikers rollen'!A4:A23,'Entiteiten beheer'!A4:A16)</f>
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1334,24 +1853,24 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1359,77 +1878,77 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
       <c r="J5" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -1437,7 +1956,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="3"/>
       <c r="P5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
@@ -1445,75 +1964,75 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="22"/>
       <c r="J6" s="10"/>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="1"/>
       <c r="P6" s="10"/>
       <c r="R6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="22"/>
       <c r="J7" s="10"/>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="23"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1521,7 +2040,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="3"/>
       <c r="P8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -1529,77 +2048,77 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="22"/>
       <c r="J9" s="10"/>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="1"/>
       <c r="P9" s="10"/>
       <c r="R9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="22"/>
       <c r="J10" s="10"/>
       <c r="L10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="23"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1607,7 +2126,7 @@
       <c r="N11" s="24"/>
       <c r="O11" s="3"/>
       <c r="P11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -1615,75 +2134,75 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="1"/>
       <c r="P12" s="10"/>
       <c r="R12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="10"/>
       <c r="L13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N13" s="23"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1691,7 +2210,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="3"/>
       <c r="P14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -1699,76 +2218,76 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="22"/>
       <c r="J15" s="10"/>
       <c r="K15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15" s="23"/>
       <c r="P15" s="10"/>
       <c r="R15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="22"/>
       <c r="J16" s="10"/>
       <c r="L16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16" s="23"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1776,7 +2295,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="3"/>
       <c r="P17" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
@@ -1784,78 +2303,78 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18" s="23"/>
       <c r="P18" s="10"/>
       <c r="R18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="22"/>
       <c r="J19" s="10"/>
       <c r="L19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N19" s="23"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -1863,7 +2382,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="3"/>
       <c r="P20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
@@ -1871,76 +2390,76 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="23"/>
       <c r="P21" s="10"/>
       <c r="R21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="10"/>
       <c r="H22" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="10"/>
       <c r="L22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="23"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="I23" s="15"/>
       <c r="J23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -1948,7 +2467,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="3"/>
       <c r="P23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -1956,102 +2475,102 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="10"/>
       <c r="E24" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="23"/>
       <c r="P24" s="10"/>
       <c r="R24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="10"/>
       <c r="E25" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" s="22"/>
       <c r="J25" s="10"/>
       <c r="K25" s="26"/>
       <c r="L25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N25" s="23"/>
       <c r="P25" s="10"/>
       <c r="R25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="10"/>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="22"/>
       <c r="J26" s="10"/>
       <c r="N26" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="15"/>
       <c r="J27" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2059,7 +2578,7 @@
       <c r="N27" s="24"/>
       <c r="O27" s="3"/>
       <c r="P27" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
@@ -2067,105 +2586,105 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="10"/>
       <c r="E28" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N28" s="23"/>
       <c r="P28" s="10"/>
       <c r="R28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="10"/>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="22"/>
       <c r="J29" s="10"/>
       <c r="N29" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P29" s="10"/>
       <c r="R29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="10"/>
       <c r="E30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="26"/>
       <c r="L30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30" s="23"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -2173,7 +2692,7 @@
       <c r="N31" s="24"/>
       <c r="O31" s="3"/>
       <c r="P31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
@@ -2181,84 +2700,84 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="10"/>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="10"/>
       <c r="H32" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N32" s="23"/>
       <c r="P32" s="10"/>
       <c r="R32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="10"/>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="10"/>
       <c r="H33" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="10"/>
       <c r="N33" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P33" s="10"/>
       <c r="R33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F34" s="10"/>
       <c r="H34" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J34" s="10"/>
       <c r="L34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N34" s="23"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="28"/>
@@ -2293,14 +2812,1169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:G15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.98"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="D8" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="119"/>
+      <c r="G13" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.98"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="D8" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="127" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="128"/>
+      <c r="D9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="124"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="125"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="129"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="119"/>
+      <c r="G13" s="125"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="125"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="129"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:K25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.63"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="H5" s="126"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="136" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="112"/>
+      <c r="H6" s="126"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="131"/>
+      <c r="E9" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="131"/>
+      <c r="E10" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="131"/>
+      <c r="E11" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="131"/>
+      <c r="E12" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="131"/>
+      <c r="E13" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="131"/>
+      <c r="E14" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="131"/>
+      <c r="E15" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="131"/>
+      <c r="E16" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="136" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="140" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="146"/>
+      <c r="E18" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="146"/>
+      <c r="E19" s="136" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="146"/>
+      <c r="E20" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="146"/>
+      <c r="E21" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="146"/>
+      <c r="E22" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="149" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:D16"/>
+    <mergeCell ref="D17:D22"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:I28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.08"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="151" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="155" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="157"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="126"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="126"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="126"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="136" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="126"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="146"/>
+      <c r="E10" s="142" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="118"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="154"/>
+      <c r="E12" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="159"/>
+      <c r="G12" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="159"/>
+      <c r="I12" s="126"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="159"/>
+      <c r="I13" s="126"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="160"/>
+      <c r="E14" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="159"/>
+      <c r="G14" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="159"/>
+      <c r="I14" s="126"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="165" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="159"/>
+      <c r="I15" s="126"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="146"/>
+      <c r="E16" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="162"/>
+      <c r="G16" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="162"/>
+      <c r="I16" s="118"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="156"/>
+      <c r="G17" s="155" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="156"/>
+      <c r="I17" s="157"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="154"/>
+      <c r="E18" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="126"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="159"/>
+      <c r="G19" s="164" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="126"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="160"/>
+      <c r="E20" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="126"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="159"/>
+      <c r="G21" s="164" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="126"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="146"/>
+      <c r="E22" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="118"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="154"/>
+      <c r="E24" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="I25" s="141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="160"/>
+      <c r="E26" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="146"/>
+      <c r="E28" s="142" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2320,7 +3994,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2332,22 +4006,21 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="L3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2356,53 +4029,53 @@
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B5:B21)</f>
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
       <c r="D5" s="31"/>
       <c r="E5" s="33"/>
@@ -2413,20 +4086,20 @@
       <c r="O5" s="31"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2434,46 +4107,46 @@
       <c r="J6" s="16"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="22"/>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="1"/>
       <c r="L7" s="10"/>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -2481,27 +4154,27 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="3"/>
       <c r="L8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
@@ -2510,7 +4183,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="35"/>
@@ -2518,23 +4191,23 @@
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
       <c r="P9" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -2543,24 +4216,24 @@
       <c r="K10" s="39"/>
       <c r="L10" s="10"/>
       <c r="M10" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -2568,50 +4241,50 @@
       <c r="K11" s="39"/>
       <c r="L11" s="10"/>
       <c r="M11" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="39"/>
       <c r="L12" s="10"/>
       <c r="M12" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="36"/>
@@ -2619,7 +4292,7 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="35"/>
@@ -2627,23 +4300,23 @@
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="26"/>
       <c r="E14" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -2652,24 +4325,24 @@
       <c r="K14" s="39"/>
       <c r="L14" s="10"/>
       <c r="M14" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="26"/>
       <c r="E15" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -2677,58 +4350,58 @@
       <c r="K15" s="39"/>
       <c r="L15" s="10"/>
       <c r="M15" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="26"/>
       <c r="E16" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="39"/>
       <c r="L16" s="10"/>
       <c r="M16" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="35"/>
@@ -2736,10 +4409,10 @@
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2770,14 +4443,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2794,236 +4467,235 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="n">
         <f aca="false">COUNTA(C5:C17)</f>
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="33"/>
       <c r="J4" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="22"/>
       <c r="J5" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="22"/>
       <c r="J6" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="22"/>
       <c r="J7" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>51</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3032,53 +4704,50 @@
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="2"/>
       <c r="F15" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3095,14 +4764,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -3124,86 +4793,84 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
       <c r="N3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B23)</f>
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="N4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="53"/>
       <c r="G5" s="23"/>
       <c r="I5" s="53"/>
@@ -3214,25 +4881,25 @@
       <c r="Q5" s="31"/>
       <c r="R5" s="33"/>
       <c r="T5" s="43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
       <c r="G6" s="55"/>
       <c r="I6" s="56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -3242,21 +4909,21 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T6" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -3264,7 +4931,7 @@
       <c r="G7" s="55"/>
       <c r="I7" s="10"/>
       <c r="J7" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="22"/>
@@ -3273,21 +4940,21 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -3296,7 +4963,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="2"/>
       <c r="K8" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="22"/>
       <c r="N8" s="10"/>
@@ -3304,19 +4971,19 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T8" s="45"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -3326,32 +4993,32 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="55"/>
       <c r="I10" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -3359,49 +5026,49 @@
       <c r="N10" s="10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="55"/>
       <c r="I11" s="10"/>
       <c r="J11" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="22"/>
       <c r="N11" s="10"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -3409,27 +5076,27 @@
       <c r="I12" s="10"/>
       <c r="J12" s="2"/>
       <c r="K12" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="22"/>
       <c r="N12" s="10"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3438,32 +5105,32 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="49"/>
       <c r="E14" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="55"/>
       <c r="I14" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3471,78 +5138,78 @@
       <c r="N14" s="10"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="49"/>
       <c r="E15" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="55"/>
       <c r="I15" s="10"/>
       <c r="J15" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="22"/>
       <c r="N15" s="10"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="49"/>
       <c r="E16" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="55"/>
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>
       <c r="K16" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="22"/>
       <c r="N16" s="10"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="49"/>
       <c r="E17" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="55"/>
@@ -3550,32 +5217,32 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
       <c r="F18" s="64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="55"/>
       <c r="I18" s="65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3583,27 +5250,27 @@
       <c r="N18" s="10"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3613,26 +5280,26 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="22"/>
@@ -3641,27 +5308,27 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
       <c r="G21" s="66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="2"/>
       <c r="K21" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L21" s="22"/>
       <c r="N21" s="10"/>
@@ -3670,35 +5337,35 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="51"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
       <c r="G22" s="66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="67"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -3730,15 +5397,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A3:R16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3760,77 +5427,75 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="L3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTA(B6:B16)</f>
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="P4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R4" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
@@ -3843,25 +5508,25 @@
       <c r="O5" s="73"/>
       <c r="P5" s="74"/>
       <c r="R5" s="43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="55"/>
       <c r="G6" s="2"/>
       <c r="H6" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="55"/>
@@ -3870,79 +5535,79 @@
       <c r="N6" s="70"/>
       <c r="O6" s="49"/>
       <c r="P6" s="76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R6" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="55"/>
       <c r="G7" s="2"/>
       <c r="H7" s="78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="55"/>
       <c r="L7" s="75"/>
       <c r="M7" s="49"/>
       <c r="N7" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" s="49"/>
       <c r="P7" s="55"/>
       <c r="R7" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="55"/>
       <c r="G8" s="2"/>
       <c r="H8" s="75"/>
       <c r="I8" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="55"/>
       <c r="L8" s="75"/>
       <c r="M8" s="49"/>
       <c r="N8" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" s="49"/>
       <c r="P8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="55"/>
@@ -3950,112 +5615,112 @@
       <c r="H9" s="75"/>
       <c r="I9" s="49"/>
       <c r="J9" s="79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="75"/>
       <c r="M9" s="49"/>
       <c r="N9" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="49"/>
       <c r="P9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="49"/>
       <c r="E10" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="2"/>
       <c r="H10" s="78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="49"/>
       <c r="J10" s="55"/>
       <c r="L10" s="75"/>
       <c r="M10" s="49"/>
       <c r="N10" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" s="49"/>
       <c r="P10" s="55"/>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="49"/>
       <c r="E11" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="2"/>
       <c r="H11" s="75"/>
       <c r="I11" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="55"/>
       <c r="L11" s="75"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O11" s="49"/>
       <c r="P11" s="55"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="49"/>
       <c r="E12" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="2"/>
       <c r="H12" s="75"/>
       <c r="I12" s="49"/>
       <c r="J12" s="79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="75"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O12" s="49"/>
       <c r="P12" s="55"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="49"/>
       <c r="J13" s="55"/>
@@ -4063,63 +5728,63 @@
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P13" s="55"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
       <c r="F14" s="79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="75"/>
       <c r="I14" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="55"/>
       <c r="L14" s="75"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P14" s="55"/>
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="75"/>
       <c r="I15" s="49"/>
       <c r="J15" s="79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="75"/>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="55"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="67"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -4149,15 +5814,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F1048576"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4165,243 +5830,208 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40" t="s">
+    <row r="4" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C5" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40" t="s">
+      <c r="E5" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="40" t="s">
+      <c r="C6" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C7" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C8" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="s">
+      <c r="E8" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="s">
+      <c r="C9" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C10" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="84" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="s">
+      <c r="C11" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40" t="s">
+      <c r="C12" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="s">
+      <c r="E12" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="80" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="84" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="s">
+      <c r="C13" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C14" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>120</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="student19example@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId2" display="student19example@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId3" display="student19example@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId4" display="student19example@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId5" display="student19example@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId6" display="student19example@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId7" display="student19example@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4412,14 +6042,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
@@ -4437,134 +6067,134 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="91" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="81" t="s">
+      <c r="C2" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="D2" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="E2" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="84" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="G3" s="23"/>
+      <c r="I3" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="I3" s="86" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="85" t="s">
+      <c r="G4" s="23"/>
+      <c r="I4" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="98" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="I4" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95" t="s">
+        <v>127</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="80" t="s">
-        <v>132</v>
-      </c>
       <c r="G5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="85"/>
+      <c r="B6" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="95"/>
       <c r="D6" s="53"/>
       <c r="E6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="80" t="s">
-        <v>132</v>
-      </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="85"/>
-      <c r="C7" s="85" t="s">
-        <v>129</v>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95" t="s">
+        <v>128</v>
       </c>
       <c r="D7" s="53"/>
       <c r="F7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="89" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="85"/>
+      <c r="B8" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="F8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="89" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90" t="s">
-        <v>130</v>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
-      <c r="G9" s="91" t="s">
-        <v>131</v>
+      <c r="G9" s="101" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4576,4 +6206,451 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:G18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.72"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="D8" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="119"/>
+      <c r="G13" s="106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="120"/>
+      <c r="G16" s="111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="104"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="D8" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="119"/>
+      <c r="G10" s="106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="119"/>
+      <c r="G13" s="111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="BadgeClass CRUD" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Badge Aanvragen" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Badge acties" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gebruikers rollen" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Entiteiten beheer" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="BadgeClass CRUD" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Badge Aanvragen" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Badge acties" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Gebruikers rollen" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Entiteiten beheer" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="Badge distribution" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Test distribution" sheetId="7" state="hidden" r:id="rId9"/>
     <sheet name="Badgeclass interaction" sheetId="8" state="visible" r:id="rId10"/>
@@ -948,7 +948,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="151">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1357,267 +1357,199 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2825,11 +2757,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.98"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,7 +2779,7 @@
       <c r="E4" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="118" t="s">
         <v>155</v>
       </c>
       <c r="G4" s="106" t="s">
@@ -2855,46 +2787,46 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="104"/>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="110" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="104"/>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="110" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="103" t="s">
@@ -2911,30 +2843,30 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="D8" s="109" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="104"/>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="110" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2945,28 +2877,28 @@
       <c r="E10" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="119"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="104"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="111" t="s">
+      <c r="F11" s="115"/>
+      <c r="G11" s="110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="104"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="111" t="s">
+      <c r="F12" s="115"/>
+      <c r="G12" s="110" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2977,28 +2909,28 @@
       <c r="E13" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="111" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="110" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="104"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="111" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="110" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="104"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="116"/>
+      <c r="G15" s="117" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3032,11 +2964,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.98"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,42 +2986,42 @@
       <c r="E4" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="104"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="104"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="103" t="s">
@@ -3098,32 +3030,32 @@
       <c r="E7" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="D8" s="109" t="s">
+      <c r="B8" s="23"/>
+      <c r="D8" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="D9" s="114" t="s">
+      <c r="B9" s="122"/>
+      <c r="D9" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="104"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="103" t="s">
@@ -3132,24 +3064,24 @@
       <c r="E10" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="124"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="119"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="104"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="125"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="120"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="104"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="129"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="103" t="s">
@@ -3158,24 +3090,24 @@
       <c r="E13" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="125"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="120"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="104"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="125"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="120"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="104"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="129"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3208,16 +3140,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.63"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,305 +3162,305 @@
       <c r="H3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="136" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="H5" s="126"/>
+      <c r="F5" s="85"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="136" t="s">
+      <c r="D6" s="125"/>
+      <c r="E6" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="H6" s="126"/>
+      <c r="F6" s="85"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="135" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="135" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="131" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="131"/>
-      <c r="E9" s="135" t="s">
+      <c r="D9" s="125"/>
+      <c r="E9" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="139" t="s">
+      <c r="F9" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="141" t="s">
+      <c r="H9" s="131" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="131"/>
-      <c r="E10" s="135" t="s">
+      <c r="D10" s="125"/>
+      <c r="E10" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="F10" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="141" t="s">
+      <c r="H10" s="131" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="131"/>
-      <c r="E11" s="135" t="s">
+      <c r="D11" s="125"/>
+      <c r="E11" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="F11" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="141" t="s">
+      <c r="H11" s="131" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="131"/>
-      <c r="E12" s="135" t="s">
+      <c r="D12" s="125"/>
+      <c r="E12" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="141" t="s">
+      <c r="H12" s="131" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="131"/>
-      <c r="E13" s="135" t="s">
+      <c r="D13" s="125"/>
+      <c r="E13" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="H13" s="111" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="131"/>
-      <c r="E14" s="135" t="s">
+      <c r="D14" s="125"/>
+      <c r="E14" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="G14" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="111" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="131"/>
-      <c r="E15" s="135" t="s">
+      <c r="D15" s="125"/>
+      <c r="E15" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="F15" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="111" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="131"/>
-      <c r="E16" s="142" t="s">
+      <c r="D16" s="125"/>
+      <c r="E16" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="144" t="s">
+      <c r="G16" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="145" t="s">
+      <c r="H16" s="135" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="139" t="s">
+      <c r="F17" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="140" t="s">
+      <c r="G17" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="131" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="146"/>
-      <c r="E18" s="136" t="s">
+      <c r="D18" s="136"/>
+      <c r="E18" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="139" t="s">
+      <c r="F18" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="147" t="s">
+      <c r="G18" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="111" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="146"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="148" t="s">
+      <c r="G19" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="113" t="s">
+      <c r="H19" s="111" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="146"/>
-      <c r="E20" s="136" t="s">
+      <c r="D20" s="136"/>
+      <c r="E20" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="147" t="s">
+      <c r="G20" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="131" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="146"/>
-      <c r="E21" s="136" t="s">
+      <c r="D21" s="136"/>
+      <c r="E21" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="147" t="s">
+      <c r="G21" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="111" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="146"/>
-      <c r="E22" s="142" t="s">
+      <c r="D22" s="136"/>
+      <c r="E22" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="F22" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="150" t="s">
+      <c r="G22" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="145" t="s">
+      <c r="H22" s="135" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3561,383 +3493,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.08"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="152" t="s">
+      <c r="H4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="139" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="136" t="s">
+      <c r="D6" s="140"/>
+      <c r="E6" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="126"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="126"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="136" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="126"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="158" t="s">
+      <c r="F9" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="126"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="146"/>
-      <c r="E10" s="142" t="s">
+      <c r="D10" s="136"/>
+      <c r="E10" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="146" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="118"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="E11" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="163" t="s">
+      <c r="F11" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="154"/>
-      <c r="E12" s="136" t="s">
+      <c r="D12" s="140"/>
+      <c r="E12" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="158" t="s">
+      <c r="F12" s="95"/>
+      <c r="G12" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="164" t="s">
+      <c r="F13" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="158" t="s">
+      <c r="G13" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="159"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="160"/>
-      <c r="E14" s="136" t="s">
+      <c r="D14" s="145"/>
+      <c r="E14" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="158" t="s">
+      <c r="F14" s="95"/>
+      <c r="G14" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="126"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="136" t="s">
+      <c r="E15" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="H15" s="159"/>
-      <c r="I15" s="126"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="146"/>
-      <c r="E16" s="142" t="s">
+      <c r="D16" s="136"/>
+      <c r="E16" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="162"/>
-      <c r="G16" s="161" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="146" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="162"/>
-      <c r="I16" s="118"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="154" t="s">
+      <c r="D17" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="132" t="s">
+      <c r="E17" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="156"/>
-      <c r="G17" s="155" t="s">
+      <c r="F17" s="142"/>
+      <c r="G17" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="154"/>
-      <c r="E18" s="136" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="158" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="126"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="136" t="s">
+      <c r="E19" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="164" t="s">
+      <c r="F19" s="95"/>
+      <c r="G19" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="158" t="s">
+      <c r="H19" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="126"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="160"/>
-      <c r="E20" s="136" t="s">
+      <c r="D20" s="145"/>
+      <c r="E20" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="158" t="s">
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="164" t="s">
+      <c r="F21" s="95"/>
+      <c r="G21" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="158" t="s">
+      <c r="H21" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="146"/>
-      <c r="E22" s="142" t="s">
+      <c r="D22" s="136"/>
+      <c r="E22" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="161" t="s">
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="118"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="154" t="s">
+      <c r="D23" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="132" t="s">
+      <c r="E23" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="166" t="s">
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="150" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="107" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="154"/>
-      <c r="E24" s="136" t="s">
+      <c r="D24" s="140"/>
+      <c r="E24" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="141" t="s">
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="131" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="160" t="s">
+      <c r="D25" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="164" t="s">
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="I25" s="141" t="s">
+      <c r="I25" s="131" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="160"/>
-      <c r="E26" s="136" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="141" t="s">
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="131" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="136" t="s">
+      <c r="E27" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="164" t="s">
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="I27" s="141" t="s">
+      <c r="I27" s="131" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="146"/>
-      <c r="E28" s="142" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="167" t="s">
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6221,10 +6153,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.72"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,46 +6182,46 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="104"/>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="110" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="104"/>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="110" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="103" t="s">
@@ -6306,30 +6238,30 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="D8" s="109" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="110" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="104"/>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="110" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6340,28 +6272,28 @@
       <c r="E10" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="119"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="104"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="111" t="s">
+      <c r="F11" s="115"/>
+      <c r="G11" s="110" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="104"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="111" t="s">
+      <c r="F12" s="115"/>
+      <c r="G12" s="110" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6372,28 +6304,28 @@
       <c r="E13" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="119"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="106" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="104"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="111" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="110" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="104"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="116"/>
+      <c r="G15" s="117" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6404,28 +6336,28 @@
       <c r="E16" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="111" t="s">
+      <c r="F16" s="115"/>
+      <c r="G16" s="110" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="104"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="111" t="s">
+      <c r="F17" s="115"/>
+      <c r="G17" s="110" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="104"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="122" t="s">
+      <c r="F18" s="116"/>
+      <c r="G18" s="117" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6460,14 +6392,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="102" t="s">
         <v>128</v>
@@ -6483,7 +6416,7 @@
       <c r="E4" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="118" t="s">
         <v>151</v>
       </c>
       <c r="G4" s="106" t="s">
@@ -6491,46 +6424,46 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="104"/>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="104"/>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="103" t="s">
@@ -6547,30 +6480,30 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="D8" s="109" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="104"/>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="110" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6581,28 +6514,28 @@
       <c r="E10" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="119"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="104"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="111" t="s">
+      <c r="F11" s="115"/>
+      <c r="G11" s="110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="104"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="111" t="s">
+      <c r="F12" s="115"/>
+      <c r="G12" s="110" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6613,28 +6546,28 @@
       <c r="E13" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="111" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="104"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="111" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="104"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="116"/>
+      <c r="G15" s="117" t="s">
         <v>154</v>
       </c>
     </row>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,9 @@
     <sheet name="Student interaction" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="Admin rights" sheetId="12" state="visible" r:id="rId14"/>
     <sheet name="Institution interaction" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="Badge distribution" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="End-to-end" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="Badge distribution" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="Expansion possibilities" sheetId="16" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="236">
   <si>
     <t xml:space="preserve">Total amount of (non basic) tests:</t>
   </si>
@@ -560,6 +562,60 @@
     <t xml:space="preserve">System admin</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested on Full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested on Partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuergroup creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuer creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badgeclass creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff account creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct award badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deny badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoke badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject badge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badgename</t>
   </si>
   <si>
@@ -657,6 +713,36 @@
   </si>
   <si>
     <t xml:space="preserve">Student → Backpack → Receivedbadge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effort level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A system admin should be able to read, create, update, and delete institutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current validator docker does not run correctly, meaning that validating a shared badge is not yet tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There currently exists a small API testing branch, however this is not yet fully explored or implemented</t>
   </si>
 </sst>
 </file>
@@ -789,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -986,6 +1072,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1012,7 +1119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="186">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1613,8 +1720,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1663,6 +1770,74 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1679,6 +1854,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1867,7 +2050,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2526,8 +2709,8 @@
   </sheetPr>
   <dimension ref="A3:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,7 +2807,9 @@
       <c r="A8" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="150"/>
+      <c r="B8" s="150" t="s">
+        <v>117</v>
+      </c>
       <c r="D8" s="149"/>
       <c r="E8" s="45" t="s">
         <v>164</v>
@@ -2952,7 +3137,7 @@
   <dimension ref="A3:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3127,6 +3312,279 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A4:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.48"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="164" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="164" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="167" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="168" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="168" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="150" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="166"/>
+      <c r="E8" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="172"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="166"/>
+      <c r="E10" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="176" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D11" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="167" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="178" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="177"/>
+      <c r="E12" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="177"/>
+      <c r="E13" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="171" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="177"/>
+      <c r="E14" s="174" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="176" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D15" s="177" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="167" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="178" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="177"/>
+      <c r="E16" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="171" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="177"/>
+      <c r="E17" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="177"/>
+      <c r="E18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="177"/>
+      <c r="E19" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="171" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="177"/>
+      <c r="E20" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="176" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="176" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D20"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3143,181 +3601,181 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="163" t="s">
-        <v>179</v>
+      <c r="B3" s="180" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="122" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="164" t="s">
-        <v>182</v>
+      <c r="B4" s="181" t="s">
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="164" t="s">
-        <v>184</v>
+      <c r="B5" s="181" t="s">
+        <v>202</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="164" t="s">
-        <v>187</v>
+      <c r="B6" s="181" t="s">
+        <v>205</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="164" t="s">
-        <v>189</v>
+      <c r="B7" s="181" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="164" t="s">
-        <v>191</v>
+      <c r="B8" s="181" t="s">
+        <v>209</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="164" t="s">
-        <v>194</v>
+      <c r="B9" s="181" t="s">
+        <v>212</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="164" t="s">
-        <v>196</v>
+      <c r="B10" s="181" t="s">
+        <v>214</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="164" t="s">
-        <v>197</v>
+      <c r="B11" s="181" t="s">
+        <v>215</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="164" t="s">
-        <v>199</v>
+      <c r="B12" s="181" t="s">
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>201</v>
+        <v>218</v>
+      </c>
+      <c r="E12" s="182" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="164" t="s">
-        <v>202</v>
+      <c r="B13" s="181" t="s">
+        <v>220</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="166" t="s">
-        <v>203</v>
+      <c r="B14" s="183" t="s">
+        <v>221</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="139" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E14" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>2</v>
@@ -3333,7 +3791,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -3343,6 +3801,134 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:D17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.02"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="184" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="184" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="185" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="184" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="184"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="184"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="184"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="184"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="184"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="184"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="184"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="184"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="184"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="237">
   <si>
     <t xml:space="preserve">Total amount of (non basic) tests:</t>
   </si>
@@ -376,6 +376,9 @@
     <t xml:space="preserve">Path to test</t>
   </si>
   <si>
+    <t xml:space="preserve">Should not be possible</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test missing asset</t>
   </si>
   <si>
@@ -574,19 +577,19 @@
     <t xml:space="preserve">Tested on Partial</t>
   </si>
   <si>
+    <t xml:space="preserve">Impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Almost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institution creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impossibility</t>
   </si>
   <si>
     <t xml:space="preserve">Issuergroup creation</t>
@@ -783,7 +786,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +863,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -1119,7 +1128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="185">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1552,19 +1561,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1572,19 +1581,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,7 +1601,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1684,10 +1693,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1696,11 +1701,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1708,11 +1713,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1720,99 +1725,99 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1910,7 +1915,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDDE8CB"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFD86ECC"/>
@@ -2050,7 +2055,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2124,12 +2129,12 @@
   <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.58"/>
@@ -2152,10 +2157,10 @@
         <v>95</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2175,10 @@
       </c>
       <c r="E5" s="100"/>
       <c r="F5" s="106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,15 +2193,15 @@
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="105" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B7" s="111" t="s">
         <v>112</v>
@@ -2205,36 +2210,36 @@
         <v>108</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="113"/>
       <c r="D9" s="109" t="s">
@@ -2242,10 +2247,10 @@
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,11 +2258,11 @@
         <v>108</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,7 +2272,7 @@
       <c r="E11" s="100"/>
       <c r="F11" s="115"/>
       <c r="G11" s="107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2282,7 @@
       <c r="E12" s="100"/>
       <c r="F12" s="115"/>
       <c r="G12" s="107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,11 +2290,11 @@
         <v>108</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F13" s="114"/>
       <c r="G13" s="107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,7 +2304,7 @@
       <c r="E14" s="100"/>
       <c r="F14" s="115"/>
       <c r="G14" s="107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2314,7 @@
       <c r="E15" s="100"/>
       <c r="F15" s="116"/>
       <c r="G15" s="117" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2337,12 +2342,12 @@
   <dimension ref="A3:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.1"/>
@@ -2370,19 +2375,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="121" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H4" s="123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,16 +2400,16 @@
       <c r="C5" s="124"/>
       <c r="D5" s="120"/>
       <c r="E5" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H5" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,274 +2421,274 @@
       </c>
       <c r="D6" s="120"/>
       <c r="E6" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F6" s="125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H6" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="105" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B7" s="111" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="120"/>
       <c r="E7" s="124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H7" s="128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="120"/>
       <c r="E8" s="124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" s="130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="113"/>
       <c r="D9" s="120"/>
       <c r="E9" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="129" t="s">
-        <v>140</v>
-      </c>
       <c r="G9" s="130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="120"/>
       <c r="E10" s="124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G10" s="130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" s="131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="120"/>
       <c r="E11" s="124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" s="129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G11" s="130" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H11" s="131" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="120"/>
       <c r="E12" s="124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F12" s="129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H12" s="131" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="120"/>
       <c r="E13" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="126" t="s">
-        <v>146</v>
-      </c>
       <c r="G13" s="127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H13" s="128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="120"/>
       <c r="E14" s="124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="126" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H14" s="128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="120"/>
       <c r="E15" s="124" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H15" s="128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="120"/>
       <c r="E16" s="132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F16" s="133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G16" s="134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" s="135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F17" s="129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G17" s="130" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H17" s="131" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="136"/>
       <c r="E18" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="129" t="s">
-        <v>153</v>
-      </c>
       <c r="G18" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H18" s="128" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="136"/>
       <c r="E19" s="45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F19" s="126" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G19" s="137" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H19" s="128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="136"/>
       <c r="E20" s="45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" s="129" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" s="131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="136"/>
       <c r="E21" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="F21" s="129" t="s">
-        <v>158</v>
-      </c>
       <c r="G21" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" s="128" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="136"/>
       <c r="E22" s="132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F22" s="138" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" s="139" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H22" s="135" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2710,12 +2715,12 @@
   <dimension ref="A3:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.05"/>
@@ -2725,7 +2730,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2746,24 +2751,24 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="141" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145"/>
+      <c r="F5" s="142" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="144"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="105" t="s">
@@ -2772,307 +2777,307 @@
       <c r="B6" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="142"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="105" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B7" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="148" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
+      <c r="F7" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="147"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="B8" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="148"/>
       <c r="E8" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="113"/>
       <c r="D9" s="136" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
+      <c r="F9" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="136"/>
       <c r="E10" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="141" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="F11" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="141"/>
+      <c r="E12" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="146"/>
+      <c r="G12" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="142"/>
-      <c r="E12" s="45" t="s">
+      <c r="F13" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="147"/>
-      <c r="I12" s="148"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="155" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="147"/>
-      <c r="I13" s="148"/>
+      <c r="G13" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="149"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="146"/>
+      <c r="G14" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="147"/>
-      <c r="I14" s="148"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="136" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="147"/>
-      <c r="I15" s="148"/>
+      <c r="F15" s="154" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="136"/>
       <c r="E16" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="150"/>
+      <c r="G16" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="152"/>
-      <c r="G16" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="152"/>
-      <c r="I16" s="153"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="141" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="146" t="s">
+      <c r="F17" s="143"/>
+      <c r="G17" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="144"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="141"/>
+      <c r="E18" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="147"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="I17" s="145"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="142"/>
-      <c r="E18" s="45" t="s">
+      <c r="F19" s="146"/>
+      <c r="G19" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="148"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" s="148"/>
+      <c r="H19" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="147"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="149"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="I20" s="148"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="136" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="148"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="136"/>
       <c r="E22" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="153"/>
+      <c r="I22" s="151"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="141" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="157" t="s">
         <v>172</v>
       </c>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="155" t="s">
+        <v>173</v>
+      </c>
       <c r="I23" s="123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="141"/>
+      <c r="E24" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="142"/>
-      <c r="E24" s="45" t="s">
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="131" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="155" t="s">
-        <v>172</v>
-      </c>
       <c r="I25" s="131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="149"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="131" t="s">
         <v>173</v>
-      </c>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="131" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,27 +3085,27 @@
         <v>11</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="155" t="s">
         <v>172</v>
       </c>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="153" t="s">
+        <v>173</v>
+      </c>
       <c r="I27" s="131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="136"/>
       <c r="E28" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="97" t="s">
         <v>173</v>
-      </c>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="97" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3159,7 @@
         <v>97</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,8 +3169,8 @@
       <c r="E4" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -3178,12 +3183,12 @@
         <v>11</v>
       </c>
       <c r="E5" s="100"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="128" t="s">
         <v>112</v>
@@ -3192,8 +3197,8 @@
         <v>10</v>
       </c>
       <c r="E6" s="100"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3206,88 +3211,88 @@
         <v>108</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+        <v>115</v>
+      </c>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="100"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="161"/>
+      <c r="B9" s="159"/>
       <c r="D9" s="109" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="100"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="99" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
+        <v>120</v>
+      </c>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="100"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="109" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="100"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="162"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="160"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="99" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="158"/>
-      <c r="G13" s="159"/>
+        <v>123</v>
+      </c>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="100"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="109" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="100"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3312,15 +3317,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G1048576"/>
+  <dimension ref="A4:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.84"/>
@@ -3335,235 +3340,233 @@
       <c r="A5" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="163" t="s">
-        <v>175</v>
+      <c r="B5" s="161" t="s">
+        <v>176</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="164" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="164" t="s">
+      <c r="F5" s="162" t="s">
         <v>178</v>
+      </c>
+      <c r="G5" s="162" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="166" t="s">
+      <c r="B6" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="168" t="s">
+      <c r="E6" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="168" t="s">
-        <v>182</v>
+      <c r="F6" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="166" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="169" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="166"/>
+        <v>114</v>
+      </c>
+      <c r="B7" s="167" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="164"/>
       <c r="E7" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="171" t="s">
-        <v>117</v>
+        <v>185</v>
+      </c>
+      <c r="F7" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="B8" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="164"/>
       <c r="E8" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="171" t="s">
-        <v>117</v>
+        <v>186</v>
+      </c>
+      <c r="F8" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="171"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="171" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="173" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="174" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="176" t="s">
-        <v>117</v>
+      <c r="B10" s="172" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="164"/>
+      <c r="E10" s="173" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="175" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="177" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="167" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="179" t="s">
-        <v>175</v>
+      <c r="D11" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="178" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="177"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="171" t="s">
-        <v>117</v>
+        <v>189</v>
+      </c>
+      <c r="F12" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="177"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="171" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="171" t="s">
-        <v>117</v>
+        <v>190</v>
+      </c>
+      <c r="F13" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="177"/>
-      <c r="E14" s="174" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="176" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="175" t="s">
-        <v>175</v>
+      <c r="D14" s="176"/>
+      <c r="E14" s="173" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="174" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D15" s="177" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="167" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="179" t="s">
-        <v>175</v>
+      <c r="D15" s="176" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="165" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="178" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="177"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="171" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="170" t="s">
-        <v>175</v>
+        <v>138</v>
+      </c>
+      <c r="F16" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="168" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="177"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="171" t="s">
-        <v>117</v>
+        <v>140</v>
+      </c>
+      <c r="F17" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="177"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="170" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+      <c r="F18" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="168" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="177"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="171" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="171" t="s">
-        <v>117</v>
+        <v>146</v>
+      </c>
+      <c r="F19" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="177"/>
-      <c r="E20" s="174" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="176" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="176" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="175" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D6:D10"/>
@@ -3588,7 +3591,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3601,181 +3604,181 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="180" t="s">
-        <v>197</v>
+      <c r="B3" s="179" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="181" t="s">
-        <v>200</v>
+      <c r="B4" s="180" t="s">
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="181" t="s">
-        <v>202</v>
+      <c r="B5" s="180" t="s">
+        <v>203</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="181" t="s">
-        <v>205</v>
+      <c r="B6" s="180" t="s">
+        <v>206</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="181" t="s">
-        <v>207</v>
+      <c r="B7" s="180" t="s">
+        <v>208</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="181" t="s">
-        <v>209</v>
+      <c r="B8" s="180" t="s">
+        <v>210</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="181" t="s">
-        <v>212</v>
+      <c r="B9" s="180" t="s">
+        <v>213</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="181" t="s">
-        <v>214</v>
+      <c r="B10" s="180" t="s">
+        <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="181" t="s">
-        <v>215</v>
+      <c r="B11" s="180" t="s">
+        <v>216</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="181" t="s">
-        <v>217</v>
+      <c r="B12" s="180" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="182" t="s">
         <v>219</v>
       </c>
+      <c r="E12" s="181" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="181" t="s">
-        <v>220</v>
+      <c r="B13" s="180" t="s">
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="183" t="s">
-        <v>221</v>
+      <c r="B14" s="182" t="s">
+        <v>222</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="139" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E14" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>2</v>
@@ -3783,7 +3786,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>1</v>
@@ -3791,7 +3794,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -3815,8 +3818,8 @@
   </sheetPr>
   <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3828,102 +3831,102 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="184" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="185" t="s">
+      <c r="B4" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="184" t="s">
+      <c r="C4" s="184" t="s">
         <v>230</v>
       </c>
+      <c r="D4" s="183" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="183" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="185" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="184" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="184" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="185" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="184" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="184"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="183"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="184"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="183"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="184"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="183"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="184"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="183"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="184"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="184"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="183"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="184"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="184"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="183"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="184"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="184"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="183"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="184"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="184"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="183"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="184"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="184"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="183"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6968,18 +6971,20 @@
   <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.72"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
       <c r="F3" s="98" t="s">
         <v>100</v>
       </c>
@@ -7039,7 +7044,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="105" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B7" s="111" t="s">
         <v>112</v>
@@ -7048,36 +7053,36 @@
         <v>108</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="113"/>
       <c r="D9" s="109" t="s">
@@ -7085,10 +7090,10 @@
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,11 +7101,11 @@
         <v>108</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,7 +7115,7 @@
       <c r="E11" s="100"/>
       <c r="F11" s="115"/>
       <c r="G11" s="107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,7 +7125,7 @@
       <c r="E12" s="100"/>
       <c r="F12" s="115"/>
       <c r="G12" s="107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,7 +7137,7 @@
       </c>
       <c r="F13" s="114"/>
       <c r="G13" s="102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,7 +7147,7 @@
       <c r="E14" s="100"/>
       <c r="F14" s="115"/>
       <c r="G14" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7152,7 +7157,7 @@
       <c r="E15" s="100"/>
       <c r="F15" s="116"/>
       <c r="G15" s="117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,11 +7165,11 @@
         <v>108</v>
       </c>
       <c r="E16" s="100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" s="115"/>
       <c r="G16" s="107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,7 +7179,7 @@
       <c r="E17" s="100"/>
       <c r="F17" s="115"/>
       <c r="G17" s="107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,7 +7189,7 @@
       <c r="E18" s="100"/>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7213,12 +7218,12 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.58"/>
@@ -7243,10 +7248,10 @@
         <v>95</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7261,10 +7266,10 @@
       </c>
       <c r="E5" s="100"/>
       <c r="F5" s="106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,15 +7284,15 @@
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="105" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B7" s="111" t="s">
         <v>112</v>
@@ -7296,36 +7301,36 @@
         <v>108</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="113"/>
       <c r="D9" s="109" t="s">
@@ -7333,10 +7338,10 @@
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,11 +7349,11 @@
         <v>108</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="102" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,7 +7363,7 @@
       <c r="E11" s="100"/>
       <c r="F11" s="115"/>
       <c r="G11" s="107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,7 +7373,7 @@
       <c r="E12" s="100"/>
       <c r="F12" s="115"/>
       <c r="G12" s="107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,11 +7381,11 @@
         <v>108</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F13" s="114"/>
       <c r="G13" s="107" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,7 +7395,7 @@
       <c r="E14" s="100"/>
       <c r="F14" s="115"/>
       <c r="G14" s="107" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,7 +7405,7 @@
       <c r="E15" s="100"/>
       <c r="F15" s="116"/>
       <c r="G15" s="117" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -3320,7 +3320,7 @@
   <dimension ref="A4:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test case overzicht surf.xlsx
+++ b/test case overzicht surf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -1128,7 +1128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="182">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1149,7 +1149,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,7 +1157,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1242,10 +1242,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1270,10 +1266,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1285,10 +1277,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1777,7 +1765,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1785,15 +1773,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1801,11 +1789,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1821,27 +1809,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1861,11 +1849,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2054,7 +2042,7 @@
   </sheetPr>
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2142,178 +2130,178 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="95" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="99" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="106" t="s">
+      <c r="E5" s="97"/>
+      <c r="F5" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="104" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="106" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="104" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="99" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="107" t="s">
+      <c r="E8" s="97"/>
+      <c r="F8" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="104" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="D9" s="109" t="s">
+      <c r="B9" s="110"/>
+      <c r="D9" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="107" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="104" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="102" t="s">
+      <c r="F10" s="111"/>
+      <c r="G10" s="99" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="107" t="s">
+      <c r="E11" s="97"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="104" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="107" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="104" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="107" t="s">
+      <c r="F13" s="111"/>
+      <c r="G13" s="104" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="107" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="104" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117" t="s">
+      <c r="E15" s="97"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="114" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2360,334 +2348,334 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="120" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="45" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="109" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="109" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="128" t="s">
+      <c r="H7" s="125" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="124" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="131" t="s">
+      <c r="H8" s="128" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="124" t="s">
+      <c r="B9" s="110"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="131" t="s">
+      <c r="H9" s="128" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="120"/>
-      <c r="E10" s="124" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="131" t="s">
+      <c r="H10" s="128" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="120"/>
-      <c r="E11" s="124" t="s">
+      <c r="D11" s="117"/>
+      <c r="E11" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="128" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="120"/>
-      <c r="E12" s="124" t="s">
+      <c r="D12" s="117"/>
+      <c r="E12" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="129" t="s">
+      <c r="F12" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="128" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="120"/>
-      <c r="E13" s="124" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="128" t="s">
+      <c r="H13" s="125" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="120"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="117"/>
+      <c r="E14" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="128" t="s">
+      <c r="H14" s="125" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="120"/>
-      <c r="E15" s="124" t="s">
+      <c r="D15" s="117"/>
+      <c r="E15" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="127" t="s">
+      <c r="G15" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="128" t="s">
+      <c r="H15" s="125" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="120"/>
-      <c r="E16" s="132" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="133" t="s">
+      <c r="F16" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="135" t="s">
+      <c r="H16" s="132" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="130" t="s">
+      <c r="G17" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="131" t="s">
+      <c r="H17" s="128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="136"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="133"/>
+      <c r="E18" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="126" t="s">
         <v>154</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="136"/>
-      <c r="E19" s="45" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="128" t="s">
+      <c r="H19" s="125" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="136"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="133"/>
+      <c r="E20" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="126" t="s">
         <v>159</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="128" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="136"/>
-      <c r="E21" s="45" t="s">
+      <c r="D21" s="133"/>
+      <c r="E21" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="126" t="s">
         <v>159</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="125" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="136"/>
-      <c r="E22" s="132" t="s">
+      <c r="D22" s="133"/>
+      <c r="E22" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="139" t="s">
+      <c r="G22" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="132" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2746,365 +2734,365 @@
       <c r="H4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="137" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="144"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="138"/>
+      <c r="E6" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="145" t="s">
+      <c r="F7" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="145"/>
+      <c r="E8" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="D9" s="136" t="s">
+      <c r="B9" s="110"/>
+      <c r="D9" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="136"/>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="149" t="s">
+      <c r="F10" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="152" t="s">
+      <c r="F11" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="142" t="s">
+      <c r="G11" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="141"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="141"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="145" t="s">
+      <c r="F12" s="143"/>
+      <c r="G12" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="153" t="s">
+      <c r="F13" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="145" t="s">
+      <c r="G13" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="148"/>
-      <c r="E14" s="45" t="s">
+      <c r="D14" s="145"/>
+      <c r="E14" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="145" t="s">
+      <c r="F14" s="143"/>
+      <c r="G14" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="145" t="s">
+      <c r="G15" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="136"/>
-      <c r="E16" s="132" t="s">
+      <c r="D16" s="133"/>
+      <c r="E16" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="150"/>
-      <c r="G16" s="149" t="s">
+      <c r="F16" s="147"/>
+      <c r="G16" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="155" t="s">
+      <c r="F17" s="140"/>
+      <c r="G17" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="145" t="s">
+      <c r="H17" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="144"/>
+      <c r="I17" s="141"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="141"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="145" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="147"/>
+      <c r="I18" s="144"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="153" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="150" t="s">
         <v>170</v>
       </c>
-      <c r="H19" s="145" t="s">
+      <c r="H19" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="147"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="148"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="145"/>
+      <c r="E20" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="145" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="147"/>
+      <c r="I20" s="144"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="153" t="s">
+      <c r="F21" s="143"/>
+      <c r="G21" s="150" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="145" t="s">
+      <c r="H21" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="147"/>
+      <c r="I21" s="144"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="136"/>
-      <c r="E22" s="132" t="s">
+      <c r="D22" s="133"/>
+      <c r="E22" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="149" t="s">
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="I22" s="151"/>
+      <c r="I22" s="148"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="121" t="s">
+      <c r="E23" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="155" t="s">
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="123" t="s">
+      <c r="I23" s="120" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="141"/>
-      <c r="E24" s="45" t="s">
+      <c r="D24" s="138"/>
+      <c r="E24" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="131" t="s">
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="128" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="148" t="s">
+      <c r="D25" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="153" t="s">
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="I25" s="131" t="s">
+      <c r="I25" s="128" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="148"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="131" t="s">
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="128" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="136" t="s">
+      <c r="D27" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="153" t="s">
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="I27" s="131" t="s">
+      <c r="I27" s="128" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="136"/>
-      <c r="E28" s="132" t="s">
+      <c r="D28" s="133"/>
+      <c r="E28" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="97" t="s">
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="94" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3155,144 +3143,144 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="95" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="D9" s="109" t="s">
+      <c r="B9" s="156"/>
+      <c r="D9" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="160"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="157"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="154"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3317,253 +3305,249 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G20"/>
+  <dimension ref="A5:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.48"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="159" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="159" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="161" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="163" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="164"/>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="161"/>
+      <c r="E7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="161"/>
+      <c r="E8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="0" t="s">
+      <c r="B9" s="168"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="168" t="s">
+      <c r="F9" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="169" t="s">
+      <c r="G9" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="164"/>
-      <c r="E10" s="173" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="170" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="174" t="s">
+      <c r="F10" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="172" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="177" t="s">
+      <c r="F11" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="178" t="s">
+      <c r="G11" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="176"/>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="173"/>
+      <c r="E12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="168" t="s">
+      <c r="F12" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="169" t="s">
+      <c r="G12" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="176"/>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="173"/>
+      <c r="E13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="169" t="s">
+      <c r="F13" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="169" t="s">
+      <c r="G13" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="176"/>
-      <c r="E14" s="173" t="s">
+      <c r="D14" s="173"/>
+      <c r="E14" s="170" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="175" t="s">
+      <c r="F14" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="174" t="s">
+      <c r="G14" s="171" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="178" t="s">
+      <c r="G15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="176"/>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="173"/>
+      <c r="E16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="168" t="s">
+      <c r="G16" s="165" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="176"/>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="173"/>
+      <c r="E17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="168" t="s">
+      <c r="F17" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="169" t="s">
+      <c r="G17" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="176"/>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="173"/>
+      <c r="E18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="168" t="s">
+      <c r="F18" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="168" t="s">
+      <c r="G18" s="165" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="176"/>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="173"/>
+      <c r="E19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="169" t="s">
+      <c r="F19" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="169" t="s">
+      <c r="G19" s="166" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="176"/>
-      <c r="E20" s="173" t="s">
+      <c r="D20" s="173"/>
+      <c r="E20" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="175" t="s">
+      <c r="F20" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="175" t="s">
+      <c r="G20" s="172" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3609,7 +3593,7 @@
       <c r="C2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="118" t="s">
         <v>196</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -3617,13 +3601,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="176" t="s">
         <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -3631,7 +3615,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="177" t="s">
         <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3640,10 +3624,10 @@
       <c r="D4" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="177" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3652,12 +3636,12 @@
       <c r="D5" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="177" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3666,10 +3650,10 @@
       <c r="D6" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="177" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3678,10 +3662,10 @@
       <c r="D7" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="177" t="s">
         <v>210</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3690,12 +3674,12 @@
       <c r="D8" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3704,10 +3688,10 @@
       <c r="D9" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="177" t="s">
         <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3716,22 +3700,22 @@
       <c r="D10" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="177" t="s">
         <v>216</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="177" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3740,12 +3724,12 @@
       <c r="D12" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="178" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="177" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3754,19 +3738,19 @@
       <c r="D13" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="179" t="s">
         <v>222</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
@@ -3816,7 +3800,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:D17"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
@@ -3824,109 +3808,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.02"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="180" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="181" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="183" t="s">
+      <c r="D4" s="180" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="181" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="183" t="s">
+      <c r="D5" s="180" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="181" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="183" t="s">
+      <c r="D6" s="180" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="183"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="183"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="180"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="183"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="180"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="183"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="183"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="180"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="183"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="183"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="180"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="183"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="183"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="180"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="183"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="183"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="180"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="183"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="183"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="180"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="183"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="180"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="183"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="183"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="180"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4113,18 +4099,18 @@
       <c r="F6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="5"/>
       <c r="J6" s="16"/>
       <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="29"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="1"/>
       <c r="P6" s="16"/>
       <c r="R6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="28"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
@@ -4139,17 +4125,17 @@
       <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="5"/>
       <c r="J7" s="16"/>
       <c r="L7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="28"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="28"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
@@ -4175,7 +4161,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="30"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="9"/>
       <c r="P8" s="20" t="s">
         <v>26</v>
@@ -4198,18 +4184,18 @@
       <c r="G9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="5"/>
       <c r="J9" s="16"/>
       <c r="K9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="1"/>
       <c r="P9" s="16"/>
       <c r="R9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="28"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
@@ -4225,17 +4211,17 @@
       <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="5"/>
       <c r="J10" s="16"/>
       <c r="L10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="29"/>
+      <c r="N10" s="28"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="28"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
@@ -4261,7 +4247,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="30"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="9"/>
       <c r="P11" s="20" t="s">
         <v>26</v>
@@ -4281,20 +4267,20 @@
         <v>26</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="29"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="1"/>
       <c r="P12" s="16"/>
       <c r="R12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="28"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
@@ -4307,19 +4293,19 @@
         <v>26</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="16"/>
       <c r="L13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="N13" s="28"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="28"/>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
@@ -4345,7 +4331,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="30"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="9"/>
       <c r="P14" s="20" t="s">
         <v>26</v>
@@ -4368,17 +4354,17 @@
       <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="5"/>
       <c r="J15" s="16"/>
       <c r="K15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="29"/>
+      <c r="N15" s="28"/>
       <c r="P15" s="16"/>
       <c r="R15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="28"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
@@ -4394,17 +4380,17 @@
       <c r="F16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="5"/>
       <c r="J16" s="16"/>
       <c r="L16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="29"/>
+      <c r="N16" s="28"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="28"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
@@ -4430,7 +4416,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="30"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="9"/>
       <c r="P17" s="20" t="s">
         <v>26</v>
@@ -4454,17 +4440,17 @@
       <c r="G18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="5"/>
       <c r="J18" s="16"/>
       <c r="K18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="29"/>
+      <c r="N18" s="28"/>
       <c r="P18" s="16"/>
       <c r="R18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="28"/>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
@@ -4481,17 +4467,17 @@
       <c r="G19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="5"/>
       <c r="J19" s="16"/>
       <c r="L19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="29"/>
+      <c r="N19" s="28"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="28"/>
+      <c r="S19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
@@ -4517,7 +4503,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="9"/>
       <c r="P20" s="20" t="s">
         <v>26</v>
@@ -4538,19 +4524,19 @@
         <v>26</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="29"/>
+      <c r="N21" s="28"/>
       <c r="P21" s="16"/>
       <c r="R21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="28"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
@@ -4564,19 +4550,19 @@
         <v>26</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="16"/>
       <c r="L22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="29"/>
+      <c r="N22" s="28"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="28"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
@@ -4602,7 +4588,7 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="30"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="9"/>
       <c r="P23" s="20" t="s">
         <v>26</v>
@@ -4615,60 +4601,60 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="5"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="29"/>
+      <c r="K24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="28"/>
       <c r="P24" s="16"/>
       <c r="R24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="28"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="5"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="29"/>
+      <c r="N25" s="28"/>
       <c r="P25" s="16"/>
       <c r="R25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="28"/>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="16"/>
@@ -4678,16 +4664,16 @@
       <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="5"/>
       <c r="J26" s="16"/>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="28" t="s">
         <v>26</v>
       </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S26" s="28"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
@@ -4713,7 +4699,7 @@
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="30"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="9"/>
       <c r="P27" s="20" t="s">
         <v>26</v>
@@ -4730,30 +4716,30 @@
         <v>26</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="28"/>
+      <c r="H28" s="5"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="29"/>
+      <c r="K28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="28"/>
       <c r="P28" s="16"/>
       <c r="R28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="28"/>
+      <c r="S28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="16"/>
@@ -4764,22 +4750,22 @@
       <c r="G29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="28"/>
+      <c r="H29" s="5"/>
       <c r="J29" s="16"/>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="28" t="s">
         <v>26</v>
       </c>
       <c r="P29" s="16"/>
       <c r="R29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="28"/>
+      <c r="S29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="16"/>
@@ -4790,18 +4776,18 @@
       <c r="G30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="5"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="32"/>
+      <c r="K30" s="31"/>
       <c r="L30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="29"/>
+      <c r="N30" s="28"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="28"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
@@ -4827,7 +4813,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="30"/>
+      <c r="N31" s="29"/>
       <c r="O31" s="9"/>
       <c r="P31" s="20" t="s">
         <v>26</v>
@@ -4848,25 +4834,25 @@
         <v>26</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="29"/>
+      <c r="N32" s="28"/>
       <c r="P32" s="16"/>
       <c r="R32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="28"/>
+      <c r="S32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="16"/>
@@ -4874,24 +4860,24 @@
         <v>26</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="N33" s="29" t="s">
+      <c r="N33" s="28" t="s">
         <v>26</v>
       </c>
       <c r="P33" s="16"/>
       <c r="R33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S33" s="28"/>
+      <c r="S33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16"/>
@@ -4899,39 +4885,39 @@
         <v>26</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="16"/>
       <c r="L34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="29"/>
+      <c r="N34" s="28"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S34" s="28"/>
+      <c r="S34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="36"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="35"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="7"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5024,7 +5010,7 @@
       <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -5039,7 +5025,7 @@
       <c r="I4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="36" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5060,13 +5046,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="10"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
-      <c r="J5" s="28"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="3"/>
+      <c r="J5" s="5"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5081,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="30"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
@@ -5107,11 +5093,11 @@
       <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="5"/>
       <c r="G7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="16"/>
       <c r="M7" s="8" t="s">
@@ -5119,7 +5105,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="29"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
@@ -5147,33 +5133,33 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="30"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="44" t="s">
+      <c r="B9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5181,108 +5167,108 @@
       <c r="A10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="45"/>
+      <c r="D10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="29"/>
+      <c r="M10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="45"/>
+      <c r="D11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="29"/>
+      <c r="M11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="45"/>
+      <c r="D12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="29"/>
+      <c r="M12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="44" t="s">
+      <c r="B13" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5290,125 +5276,125 @@
       <c r="A14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="45"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="29"/>
+      <c r="M14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="45"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="29"/>
+      <c r="M15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="28" t="s">
-        <